--- a/!parsed_items_100/1299/1299_799-900.xlsx
+++ b/!parsed_items_100/1299/1299_799-900.xlsx
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Костюм секретарши мечты LXL</t>
+          <t>Костюм рабыни под винил со шнуровкой</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-23183-1299</t>
+          <t>id-23181-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23183/23183_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23183/23183_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23183/23183_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23183/23183_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23183/23183_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23183/23183_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_4_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Начальник явно одобрит такое декольте, а если показать как расстегивается юбка, то и повышение можно получить. Костюм секретарши мечты LXL.  Костюм секретарши мечты LXL. Модель: lefri-05000lxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">В этом костюме запрещается говорить нет! Сегодня ты чувственная рабыня, которая готова на все ради господина. Костюм рабыни под винил со шнуровкой LXL.  Костюм рабыни под винил со шнуровкой LXL. Модель: lefri-05002lxlb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>97% полиэстер, 3% эластан</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>юбка под кожу на молнии, блузка, портупея, очки без стекол</t>
+          <t>топ, юбочка, манжеты, чулки</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1167,22 +1167,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Костюм секретарши мечты SM</t>
+          <t>Костюм рабыни под винил со шнуровкой ML</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-22840-1299</t>
+          <t>id-22839-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22840/22840_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22840/22840_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22839/22839_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22839/22839_2_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Начальник явно одобрит такое декольте, а если показать как расстегивается юбка, то и повышение можно получить. Костюм секретарши мечты SM.  Костюм секретарши мечты SM. Модель: lefri-05000smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">В этом костюме запрещается говорить нет! Сегодня ты чувственная рабыня, которая готова на все ради господина. Костюм рабыни под винил со шнуровкой ML.  Костюм рабыни под винил со шнуровкой ML. Модель: lefri-05002mlb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t xml:space="preserve">90% полиамид, 10% эластан </t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>юбка под кожу на молнии, блузка, портупея, очки</t>
+          <t>топ, юбочка, манжеты, чулки</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1295,22 +1295,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Костюм рабыни под винил со шнуровкой</t>
+          <t>Соблазнительное боди медсестры ML</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-23181-1299</t>
+          <t>id-22847-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1324,12 +1324,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23181/23181_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22847/22847_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22847/22847_2_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">В этом костюме запрещается говорить нет! Сегодня ты чувственная рабыня, которая готова на все ради господина. Костюм рабыни под винил со шнуровкой LXL.  Костюм рабыни под винил со шнуровкой LXL. Модель: lefri-05002lxlb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Абсолютно с любым недугом справится твоя личная медсестра. У нее для всех болезней свой особый способ лечения. Главное - не забыть подтянуть чулки перед началом целебных процедур. Соблазнительное боди медсестры ML.  Соблазнительное боди медсестры ML. Модель: lefri-05003mlw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>97% полиэстер, 3% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>топ, юбочка, манжеты, чулки</t>
+          <t>боди с пажами для чулок, перчатки, чулки, головной убор</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Костюм рабыни под винил со шнуровкой ML</t>
+          <t>Костюм школьницы хулиганки ML</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-22839-1299</t>
+          <t>id-22851-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22839/22839_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22839/22839_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22851/22851_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22851/22851_2_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">В этом костюме запрещается говорить нет! Сегодня ты чувственная рабыня, которая готова на все ради господина. Костюм рабыни под винил со шнуровкой ML.  Костюм рабыни под винил со шнуровкой ML. Модель: lefri-05002mlb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 90% полиамид, 10% эластан . Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Кажется, кого-то ждут дополнительные занятия в вечернее время. Хорошо подготовь предмет и не забудь надеть лучшую форму, твоему учителю она точно понравится. Костюм школьницы хулиганки ML.  Костюм школьницы хулиганки ML. Модель: lefri-05004mlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t xml:space="preserve">90% полиамид, 10% эластан </t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1515,7 +1515,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>топ, юбочка, манжеты, чулки</t>
+          <t>топ с галстуком, юбочка с пажами для чулок, чулки</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1551,22 +1551,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Соблазнительное боди медсестры ML</t>
+          <t>Костюм школьницы хулиганки SM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-22847-1299</t>
+          <t>id-22850-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22847/22847_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22847/22847_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22850/22850_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22850/22850_2_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Абсолютно с любым недугом справится твоя личная медсестра. У нее для всех болезней свой особый способ лечения. Главное - не забыть подтянуть чулки перед началом целебных процедур. Соблазнительное боди медсестры ML.  Соблазнительное боди медсестры ML. Модель: lefri-05003mlw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Кажется, кого-то ждут дополнительные занятия в вечернее время. Хорошо подготовь предмет и не забудь надеть лучшую форму, твоему учителю она точно понравится. Костюм школьницы хулиганки SM.  Костюм школьницы хулиганки SM. Модель: lefri-05004smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1643,7 +1643,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>боди с пажами для чулок, перчатки, чулки, головной убор</t>
+          <t>топ с галстуком, юбочка с пажами для чулок, чулки</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Костюм школьницы хулиганки ML</t>
+          <t>Боди полицейской с двусторонней молнией</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-22851-1299</t>
+          <t>id-22849-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22851/22851_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22851/22851_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22849/22849_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22849/22849_2_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кажется, кого-то ждут дополнительные занятия в вечернее время. Хорошо подготовь предмет и не забудь надеть лучшую форму, твоему учителю она точно понравится. Костюм школьницы хулиганки ML.  Костюм школьницы хулиганки ML. Модель: lefri-05004mlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Этот коп не берет взяток, но вот если расстегнуть молнию.то возможно, получится договориться. Молния расстегивается в две стороны, и позволит не снимать костюм при любых сексуальных фантазиях!.Боди полицейской с двусторонней молнией ML.  Боди полицейской с двусторонней молнией ML. Модель: lefri-05005mlbl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: голубой, черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1771,7 +1771,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>топ с галстуком, юбочка с пажами для чулок, чулки</t>
+          <t>боди с двусторонней молнией, пояс, чулки</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1807,22 +1807,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Костюм школьницы хулиганки SM</t>
+          <t>Костюм кошечки ML</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-22850-1299</t>
+          <t>id-23174-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1836,12 +1836,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22850/22850_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22850/22850_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_4_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кажется, кого-то ждут дополнительные занятия в вечернее время. Хорошо подготовь предмет и не забудь надеть лучшую форму, твоему учителю она точно понравится. Костюм школьницы хулиганки SM.  Костюм школьницы хулиганки SM. Модель: lefri-05004smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Сколько изящества и сексуальности в этой кошке. Она готова играть и кажется не против, если ты потянешь за хвостик. Костюм кошечки ML.  Костюм кошечки ML. Модель: lefri-05006mlb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1899,7 +1899,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>топ с галстуком, юбочка с пажами для чулок, чулки</t>
+          <t>кошачьи ушки, чокер, пояс-юбочка, лиф, трусики с хвостиком и съемными гартерами</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1935,22 +1935,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Боди полицейской с двусторонней молнией</t>
+          <t>Костюм милой горничной SM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-22849-1299</t>
+          <t>id-23188-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22849/22849_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22849/22849_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_4_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот коп не берет взяток, но вот если расстегнуть молнию.то возможно, получится договориться. Молния расстегивается в две стороны, и позволит не снимать костюм при любых сексуальных фантазиях!.Боди полицейской с двусторонней молнией ML.  Боди полицейской с двусторонней молнией ML. Модель: lefri-05005mlbl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: голубой, черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Наивно полагать,что кто-то справится с беспорядком лучше, чем горничная. Особое внимание пусть уделит спальне. .Чтобы хозяин был доволен. Костюм милой горничной SM.  Костюм милой горничной SM. Модель: lefri-05007smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2027,7 +2027,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>боди с двусторонней молнией, пояс, чулки</t>
+          <t>юбка-фартук, бюст, манжеты, чулки, повязка на голову, перьевая палочка</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2063,12 +2063,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Костюм кошечки ML</t>
+          <t>Черный комбинезон с вырезами на бедрах</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-23174-1299</t>
+          <t>id-22888-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23174/23174_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22888/22888_1_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сколько изящества и сексуальности в этой кошке. Она готова играть и кажется не против, если ты потянешь за хвостик. Костюм кошечки ML.  Костюм кошечки ML. Модель: lefri-05006mlb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Сетчатый комбинезон из топа и чулок украшен кокетливыми цветочными вставками. Эластичная фактура позволит комбинезону идеально сесть по вашей фигуре. Черный комбинезон с вырезами на бедрах и цветочным плетением SL.  Черный комбинезон с вырезами на бедрах и цветочным плетением SL. Модель: lefri-05011slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -2155,7 +2155,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>кошачьи ушки, чокер, пояс-юбочка, лиф, трусики с хвостиком и съемными гартерами</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2191,22 +2191,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Костюм милой горничной SM</t>
+          <t>Комбинезон в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-23188-1299</t>
+          <t>id-23438-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2220,12 +2220,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23188/23188_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23438/23438_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23438/23438_2_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наивно полагать,что кто-то справится с беспорядком лучше, чем горничная. Особое внимание пусть уделит спальне. .Чтобы хозяин был доволен. Костюм милой горничной SM.  Костюм милой горничной SM. Модель: lefri-05007smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Есть мнение, что сексуальность - это искусство пробудить в мужчине интерес к тому, что он и так хорошо знает. Со стопроцентной уверенностью можем заверить, что наш боди-комбинезон с имитацией чулок, полупрозрачным ажурным топом и наличием доступа, помимо интереса пробудит еще и желание. Комбинезон в мелкую сеточку с растительным рисунком SL.  Комбинезон в мелкую сеточку с растительным рисунком SL. Модель: lefri-05012slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2283,7 +2283,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>юбка-фартук, бюст, манжеты, чулки, повязка на голову, перьевая палочка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2319,24 +2319,16 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Черный комбинезон с вырезами на бедрах</t>
+          <t>Мощный вибромассажер CASSI (8 режимов)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-22888-1299</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-21952-1299</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>99999</v>
@@ -2348,17 +2340,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22888/22888_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21952/21952_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21952/21952_2_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сетчатый комбинезон из топа и чулок украшен кокетливыми цветочными вставками. Эластичная фактура позволит комбинезону идеально сесть по вашей фигуре. Черный комбинезон с вырезами на бедрах и цветочным плетением SL.  Черный комбинезон с вырезами на бедрах и цветочным плетением SL. Модель: lefri-05011slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Приготовься отправиться в глубины космических оргазмов с массажером Cassi. Царицу Кассиопею считали самой красивой женщиной в древней Греции. Массажер повторяет звездный узор и удобно распологается в руке. Cassi найдет общий язык со всеми потайными уголками твоего тела, благодаря 8 программам мощной вибрации. Раскатывающиеся волны удовольствия унесут тебя в бескрайние дали. Продолжи свои открытия в воде, где по новому раскроются возможности Cassi. Мощный вибромассажер CASSI (8 режимов).  Мощный вибромассажер CASSI (8 режимов). Модель: lefri-05496. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Вибромассажеры. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2373,7 +2365,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2390,15 +2382,25 @@
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.8</v>
+      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2411,7 +2413,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, магнитная USB-зарядка, мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2431,7 +2433,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2447,24 +2449,16 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Комбинезон в мелкую сеточку с</t>
+          <t>Вибро-шарики с дистанционным</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-23438-1299</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22261-1299</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>99999</v>
@@ -2476,17 +2470,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23438/23438_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23438/23438_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22261/22261_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22261/22261_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22261/22261_3_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Есть мнение, что сексуальность - это искусство пробудить в мужчине интерес к тому, что он и так хорошо знает. Со стопроцентной уверенностью можем заверить, что наш боди-комбинезон с имитацией чулок, полупрозрачным ажурным топом и наличием доступа, помимо интереса пробудит еще и желание. Комбинезон в мелкую сеточку с растительным рисунком SL.  Комбинезон в мелкую сеточку с растительным рисунком SL. Модель: lefri-05012slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Приготовься отправиться в глубины космических оргазмов с вибро-шариками SuperNova. Вспышка сверхновой - высвобождение огромного количества энергии и рождение новой звезды. Вибро-шарики вобрали в себя сразу несколько игрушек, их можно использовать как для тренировки мышц, так и для массажа эрогенных зон. Управляй каждым оргазмом благодаря удобному пульту управления, который может резонировать с шариками на одной из 8 волн или же используй их отдельно друг от друга. Познай новые грани чувств за пределами привычного окружения! Преимущества модели: 1. Магнитная зарядка, 2. Перезаряжаемые аккумуляторы, 3. Абсолютно водонепроницаемые, 4. 8 уникальных программ вибрации, 5. 2 игрушки в комплекте, 6. 100% безопасный силикон, 7. Бесшумные и мощные, 8. Фирменный мешочек для хранения, 9. 1 час работы - 1 час зарядки 10. Игрушки могут работать отдельно.Вибро-шарики с дистанционным вибро-пультом Infinite SUPERNOVA (8 режимов).  Вибро-шарики с дистанционным вибро-пультом Infinite SUPERNOVA (8 режимов). Модель: lefri-05497. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Шарики &gt; Вагинальные с вибрацией. С вибрацией. Цвет: фиолетовый с черным. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2501,7 +2495,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2516,17 +2510,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15.9</v>
+      </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2539,7 +2547,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>виброшарики, вибропульт, магнитная USB-зарядка, фирменный мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2575,12 +2583,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Мощный вибромассажер CASSI (8 режимов)</t>
+          <t>Мощный вибратор с клиторальным</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-21952-1299</t>
+          <t>id-22255-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2596,12 +2604,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21952/21952_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21952/21952_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22255/22255_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22255/22255_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22255/22255_3_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приготовься отправиться в глубины космических оргазмов с массажером Cassi. Царицу Кассиопею считали самой красивой женщиной в древней Греции. Массажер повторяет звездный узор и удобно распологается в руке. Cassi найдет общий язык со всеми потайными уголками твоего тела, благодаря 8 программам мощной вибрации. Раскатывающиеся волны удовольствия унесут тебя в бескрайние дали. Продолжи свои открытия в воде, где по новому раскроются возможности Cassi. Мощный вибромассажер CASSI (8 режимов).  Мощный вибромассажер CASSI (8 режимов). Модель: lefri-05496. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Вибромассажеры. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор Kiara - это твой выход на орбиту удовольствия. Выверенные формы в сочетании с двумя мощными моторами, расположенными в основной части и клиторальном отростке, по-новому раскроют твои самые эрогенные зоны, а 10 режимов вибрации наградят незабываемыми впечатлениями. Вибратор очень мощный - до трех часов непрерывного удовольствия. Для его корректной работы используйте батарейки ААА, предназначенные для энергоемкой техники. Подойдут: duracell, energizer или перезаряжаемые ААА аккумуляторы. Преимущества модели: 1. Простое управление 2. 10 программ вибрации 3. 100% безопасный силикон 4. Бесшумный и мощный 5. Фирменный мешочек для хранения 6. 2 ААА батарейки - 3 часа работы.Мощный вибратор с клиторальным стимулятором Solar KIARA (10 режимов).  Мощный вибратор с клиторальным стимулятором Solar KIARA (10 режимов). Модель: lefri-05499. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: бежево-персиковый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2639,23 +2647,27 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>23.1</v>
+        <v>20.13</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>18.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>18.3</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12.1</v>
+      </c>
       <c r="AF17" t="n">
-        <v>4.18</v>
+        <v>3.85</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
@@ -2669,7 +2681,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>вибратор, магнитная USB-зарядка, мешочек для хранения, инструкция</t>
+          <t>вибратор, фирменный мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2705,12 +2717,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Вибро-шарики с дистанционным</t>
+          <t>Вибратор для двойной стимуляции Solar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-22261-1299</t>
+          <t>id-21006-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2726,12 +2738,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22261/22261_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22261/22261_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22261/22261_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21006/21006_1_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приготовься отправиться в глубины космических оргазмов с вибро-шариками SuperNova. Вспышка сверхновой - высвобождение огромного количества энергии и рождение новой звезды. Вибро-шарики вобрали в себя сразу несколько игрушек, их можно использовать как для тренировки мышц, так и для массажа эрогенных зон. Управляй каждым оргазмом благодаря удобному пульту управления, который может резонировать с шариками на одной из 8 волн или же используй их отдельно друг от друга. Познай новые грани чувств за пределами привычного окружения! Преимущества модели: 1. Магнитная зарядка, 2. Перезаряжаемые аккумуляторы, 3. Абсолютно водонепроницаемые, 4. 8 уникальных программ вибрации, 5. 2 игрушки в комплекте, 6. 100% безопасный силикон, 7. Бесшумные и мощные, 8. Фирменный мешочек для хранения, 9. 1 час работы - 1 час зарядки 10. Игрушки могут работать отдельно.Вибро-шарики с дистанционным вибро-пультом Infinite SUPERNOVA (8 режимов).  Вибро-шарики с дистанционным вибро-пультом Infinite SUPERNOVA (8 режимов). Модель: lefri-05497. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Шарики &gt; Вагинальные с вибрацией. С вибрацией. Цвет: фиолетовый с черным. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор Naya это твой выход на орбиту удовольствия. Выверенные формы в сочетании с двумя мощными моторами, расположенными в основной части и клиторальном отростке в форме кролика, по-новому раскроют твои самые эрогенные зоны, а 10 режимов вибрации наградят незабываемыми впечатлениями. Вибратор очень мощный - до трех часов непрерывного удовольствия. Для его корректной работы используйте батарейки ААА, предназначенные для энергоемкой техники. Вибратор для двойной стимуляции Solar Naya (10 режимов, 2 мотора).  Вибратор для двойной стимуляции Solar Naya (10 режимов, 2 мотора). Модель: lefri-05501. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: морской волны. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2741,17 +2753,17 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2766,25 +2778,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>4.18</v>
-      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>17.49</v>
+        <v>20.13</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.9</v>
+        <v>18.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.9</v>
+        <v>18.3</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12.1</v>
+      </c>
       <c r="AF18" t="n">
         <v>3.85</v>
       </c>
@@ -2803,7 +2815,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>виброшарики, вибропульт, магнитная USB-зарядка, фирменный мешочек для хранения, инструкция</t>
+          <t>вибратор, мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2844,7 +2856,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-22255-1299</t>
+          <t>id-22256-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2860,12 +2872,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22255/22255_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22255/22255_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22255/22255_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22256/22256_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22256/22256_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22256/22256_3_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Kiara - это твой выход на орбиту удовольствия. Выверенные формы в сочетании с двумя мощными моторами, расположенными в основной части и клиторальном отростке, по-новому раскроют твои самые эрогенные зоны, а 10 режимов вибрации наградят незабываемыми впечатлениями. Вибратор очень мощный - до трех часов непрерывного удовольствия. Для его корректной работы используйте батарейки ААА, предназначенные для энергоемкой техники. Подойдут: duracell, energizer или перезаряжаемые ААА аккумуляторы. Преимущества модели: 1. Простое управление 2. 10 программ вибрации 3. 100% безопасный силикон 4. Бесшумный и мощный 5. Фирменный мешочек для хранения 6. 2 ААА батарейки - 3 часа работы.Мощный вибратор с клиторальным стимулятором Solar KIARA (10 режимов).  Мощный вибратор с клиторальным стимулятором Solar KIARA (10 режимов). Модель: lefri-05499. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: бежево-персиковый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор Naya - это твой выход на орбиту удовольствия. Выверенные формы в сочетании с двумя мощными моторами, расположенными в основной части и клиторальном отростке в форме кролика, по-новому раскроют твои самые эрогенные зоны, а 10 режимов вибрации наградят незабываемыми впечатлениями. Вибратор очень мощный - до трех часов непрерывного удовольствия. Для его корректной работы используйте батарейки ААА, предназначенные для энергоемкой техники. Подойдут: duracell, energizer, или перезаряжаемые ААА аккумуляторы. Преимущества модели: 1. Простое управление, 2. 10 программ вибрации, 3. 100% безопасный силикон, 4. Бесшумный и мощный, 5. Фирменный мешочек для хранения, 6. 2 ААА батарейки - 3 часа работы, 7. ушки кролика.Мощный вибратор с клиторальным стимулятором Solar NAYA (10 режимов).  Мощный вибратор с клиторальным стимулятором Solar NAYA (10 режимов). Модель: lefri-05502. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: нежно-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2973,12 +2985,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Вибратор для двойной стимуляции Solar</t>
+          <t>Перезаряжаемый мощнейший рельефный</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-21006-1299</t>
+          <t>id-22258-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2994,12 +3006,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21006/21006_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22258/22258_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22258/22258_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22258/22258_3_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Naya это твой выход на орбиту удовольствия. Выверенные формы в сочетании с двумя мощными моторами, расположенными в основной части и клиторальном отростке в форме кролика, по-новому раскроют твои самые эрогенные зоны, а 10 режимов вибрации наградят незабываемыми впечатлениями. Вибратор очень мощный - до трех часов непрерывного удовольствия. Для его корректной работы используйте батарейки ААА, предназначенные для энергоемкой техники. Вибратор для двойной стимуляции Solar Naya (10 режимов, 2 мотора).  Вибратор для двойной стимуляции Solar Naya (10 режимов, 2 мотора). Модель: lefri-05501. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: морской волны. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор Rhea создан для интенсивной стимуляции точки G. Анатомическая форма в сочетании с прогрессивным дизайном и бархатистым силиконом удивят свою владелицу сладостными оргазмами. 10 уникальных режимов вибрации, целый час беспрерывного наслаждения. Влагозащитный корпус. Преимущества модели: 1. Простое управление, 2. Перезаряжаемый аккумулятор 3. 10 программ вибрации, 4. 100% безопасный силикон, 5. Бесшумный и мощный, 6. Фирменный мешочек для хранения, 7. 1 час работы - 2 часа зарядки, 8. Идеальная форма для точки G,.Перезаряжаемый мощнейший рельефный вибратор для G-стимуляции Fusion RHEA (10 режимов).  Перезаряжаемый мощнейший рельефный вибратор для G-стимуляции Fusion RHEA (10 режимов). Модель: lefri-05503. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3009,17 +3021,17 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -3037,21 +3049,21 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>20.13</v>
+        <v>19.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>12.1</v>
+        <v>13.75</v>
       </c>
       <c r="AF20" t="n">
         <v>3.85</v>
@@ -3071,7 +3083,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>вибратор, мешочек для хранения, инструкция</t>
+          <t>вибратор, USB провод для магнитной зарядки, фирменный мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -3107,12 +3119,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Мощный вибратор с клиторальным</t>
+          <t>Перезаряжаемый мощнейший вибратор для</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-22256-1299</t>
+          <t>id-22259-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -3128,12 +3140,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22256/22256_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22256/22256_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22256/22256_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22259/22259_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22259/22259_2_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Naya - это твой выход на орбиту удовольствия. Выверенные формы в сочетании с двумя мощными моторами, расположенными в основной части и клиторальном отростке в форме кролика, по-новому раскроют твои самые эрогенные зоны, а 10 режимов вибрации наградят незабываемыми впечатлениями. Вибратор очень мощный - до трех часов непрерывного удовольствия. Для его корректной работы используйте батарейки ААА, предназначенные для энергоемкой техники. Подойдут: duracell, energizer, или перезаряжаемые ААА аккумуляторы. Преимущества модели: 1. Простое управление, 2. 10 программ вибрации, 3. 100% безопасный силикон, 4. Бесшумный и мощный, 5. Фирменный мешочек для хранения, 6. 2 ААА батарейки - 3 часа работы, 7. ушки кролика.Мощный вибратор с клиторальным стимулятором Solar NAYA (10 режимов).  Мощный вибратор с клиторальным стимулятором Solar NAYA (10 режимов). Модель: lefri-05502. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: нежно-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор Diona создан для интенсивной стимуляции точки G. Анатомическая форма в сочетании с прогрессивным дизайном и бархатистым силиконом удивят свою владелицу сладостными оргазмами. 10 уникальных режимов вибрации, целый час беспрерывного наслаждения. Влагозащитный корпус. Преимущества модели: 1. Простое управление, 2. Перезаряжаемый аккумулятор 3. 10 программ вибрации, 4. 100% безопасный силикон, 5. Бесшумный и мощный, 6. Фирменный мешочек для хранения, 7. 1 час работы - 2 часа зарядки, 8. Идеальная форма для точки G. Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion DIONA (10 режимов).  Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion DIONA (10 режимов). Модель: lefri-05504. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: морской волны. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3171,21 +3183,21 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>20.13</v>
+        <v>19.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>12.1</v>
+        <v>13.75</v>
       </c>
       <c r="AF21" t="n">
         <v>3.85</v>
@@ -3205,7 +3217,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>вибратор, фирменный мешочек для хранения, инструкция</t>
+          <t>вибратор, USB провод для магнитной зарядки, фирменный мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3241,12 +3253,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Перезаряжаемый мощнейший рельефный</t>
+          <t>Перезаряжаемый мощнейший вибратор для</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-22258-1299</t>
+          <t>id-22257-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3262,12 +3274,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22258/22258_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22258/22258_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22258/22258_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22257/22257_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22257/22257_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22257/22257_3_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Rhea создан для интенсивной стимуляции точки G. Анатомическая форма в сочетании с прогрессивным дизайном и бархатистым силиконом удивят свою владелицу сладостными оргазмами. 10 уникальных режимов вибрации, целый час беспрерывного наслаждения. Влагозащитный корпус. Преимущества модели: 1. Простое управление, 2. Перезаряжаемый аккумулятор 3. 10 программ вибрации, 4. 100% безопасный силикон, 5. Бесшумный и мощный, 6. Фирменный мешочек для хранения, 7. 1 час работы - 2 часа зарядки, 8. Идеальная форма для точки G,.Перезаряжаемый мощнейший рельефный вибратор для G-стимуляции Fusion RHEA (10 режимов).  Перезаряжаемый мощнейший рельефный вибратор для G-стимуляции Fusion RHEA (10 режимов). Модель: lefri-05503. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор Anfa создан для интенсивной стимуляции точки G. Анатомическая форма в сочетании с прогрессивным дизайном и бархатистым силиконом удивят свою владелицу сладостными оргазмами. 10 уникальных режимов вибрации, целый час беспрерывного наслаждения. Влагозащитный корпус. Преимущества модели: 1. Простое управление, 2. Перезаряжаемый аккумулятор 3. 10 программ вибрации, 4. 100% безопасный силикон, 5. Бесшумный и мощный, 6. Фирменный мешочек для хранения, 7. 1 час работы - 2 часа зарядки, 8. Идеальная форма для точки G. Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion ANFA (10 режимов).  Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion ANFA (10 режимов). Модель: lefri-05505. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3359,7 +3371,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3370,17 +3382,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Перезаряжаемый мощнейший вибратор для</t>
+          <t>Небольшая анальная цепочка Core Appulse</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-22259-1299</t>
+          <t>id-21004-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3396,12 +3408,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22259/22259_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22259/22259_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21004/21004_1_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Diona создан для интенсивной стимуляции точки G. Анатомическая форма в сочетании с прогрессивным дизайном и бархатистым силиконом удивят свою владелицу сладостными оргазмами. 10 уникальных режимов вибрации, целый час беспрерывного наслаждения. Влагозащитный корпус. Преимущества модели: 1. Простое управление, 2. Перезаряжаемый аккумулятор 3. 10 программ вибрации, 4. 100% безопасный силикон, 5. Бесшумный и мощный, 6. Фирменный мешочек для хранения, 7. 1 час работы - 2 часа зарядки, 8. Идеальная форма для точки G. Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion DIONA (10 режимов).  Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion DIONA (10 режимов). Модель: lefri-05504. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: морской волны. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная цепочка Appulse это идеальный вариант для тех, кто хочет познать новые грани наслаждения. Модель выполнена из высококачественного медицинского силикона, приятна на ощупь. Симметричное расположение элементов позволяет полностью сконцентрироваться на приятных ощущениях. Подходит для двойного проникновения. Эргономичная петля в форме кольца обеспечивает удобство в использовании и контроль. Материал изделия гарантирует максимальный уровень гигиеничности и не требует специального ухода. Используйте смазку на водной основе. Небольшая анальная цепочка Core Appulse.  Небольшая анальная цепочка Core Appulse. Модель: lefri-05508. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; Без вибрации. Шарики &gt; Анальные. Цвет: темно-синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3411,12 +3423,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3439,27 +3451,23 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>19.8</v>
+        <v>13.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13.75</v>
-      </c>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>3.85</v>
+        <v>2.64</v>
       </c>
       <c r="AG23" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
@@ -3473,7 +3481,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>вибратор, USB провод для магнитной зарядки, фирменный мешочек для хранения, инструкция</t>
+          <t>шарики, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3493,7 +3501,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3504,17 +3512,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Перезаряжаемый мощнейший вибратор для</t>
+          <t>Анальная цепочка с кольцом Love Beam</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-22257-1299</t>
+          <t>id-21794-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3530,12 +3538,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22257/22257_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22257/22257_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22257/22257_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21794/21794_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21794/21794_2_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Anfa создан для интенсивной стимуляции точки G. Анатомическая форма в сочетании с прогрессивным дизайном и бархатистым силиконом удивят свою владелицу сладостными оргазмами. 10 уникальных режимов вибрации, целый час беспрерывного наслаждения. Влагозащитный корпус. Преимущества модели: 1. Простое управление, 2. Перезаряжаемый аккумулятор 3. 10 программ вибрации, 4. 100% безопасный силикон, 5. Бесшумный и мощный, 6. Фирменный мешочек для хранения, 7. 1 час работы - 2 часа зарядки, 8. Идеальная форма для точки G. Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion ANFA (10 режимов).  Перезаряжаемый мощнейший вибратор для G-стимуляции Fusion ANFA (10 режимов). Модель: lefri-05505. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная цепочка Love Beam это идеальный вариант для тех, кто хочет испытать новые ощущения познать уникальные грани наслаждения. Модель выполнена из высококачественного медицинского силикона, приятна на ощупь. Зауженный кончик обеспечивает аккуратное введение, а разный диаметр звеньев подарит космические эмоции. Подходит для двойного проникновения. Эргономичная петля в форме сердечка обеспечивает удобство в использовании и контроль. Материал изделия гарантирует максимальный уровень гигиеничности и не требует специального ухода. Используйте смазку на водной основе. Анальная цепочка с кольцом Love Beam.  Анальная цепочка с кольцом Love Beam. Модель: lefri-05510. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3573,27 +3581,27 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>19.8</v>
+        <v>20.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.75</v>
+        <v>16.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.85</v>
+        <v>3.41</v>
       </c>
       <c r="AG24" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
@@ -3607,7 +3615,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>вибратор, USB провод для магнитной зарядки, фирменный мешочек для хранения, инструкция</t>
+          <t>анальная цепочка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3643,12 +3651,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Небольшая анальная цепочка Core Appulse</t>
+          <t>Анальный стимулятор на присоске с</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-21004-1299</t>
+          <t>id-21791-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3664,12 +3672,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21004/21004_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21791/21791_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21791/21791_2_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная цепочка Appulse это идеальный вариант для тех, кто хочет познать новые грани наслаждения. Модель выполнена из высококачественного медицинского силикона, приятна на ощупь. Симметричное расположение элементов позволяет полностью сконцентрироваться на приятных ощущениях. Подходит для двойного проникновения. Эргономичная петля в форме кольца обеспечивает удобство в использовании и контроль. Материал изделия гарантирует максимальный уровень гигиеничности и не требует специального ухода. Используйте смазку на водной основе. Небольшая анальная цепочка Core Appulse.  Небольшая анальная цепочка Core Appulse. Модель: lefri-05508. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; Без вибрации. Шарики &gt; Анальные. Цвет: темно-синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Vesta  для тех, кто готов стонать от наслаждения. Изделие имеет заостренный кончик и 2 расширения, которые простимулирует каждый миллиметр вашего тела. Пробка изготовлена из гипоаллергенного медицинского силикона. Этот материал имеет долгий срок службы и довольно прост в уходе. Кроме этого у пробки есть ограничитель в виде плоского основания, что позволяет сосредоточиться исключительно на приятных ощущениях, не переживая за безопасность использования. Пробуйте, экспериментируйте и наслаждайтесь каждым моментом. Анальный стимулятор на присоске с загнутым кончиком VESTA.  Анальный стимулятор на присоске с загнутым кончиком VESTA. Модель: lefri-05518. Секс-игрушки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3679,12 +3687,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3707,23 +3715,27 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>13.2</v>
+        <v>13.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>12.1</v>
+      </c>
       <c r="AF25" t="n">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
@@ -3737,7 +3749,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>шарики, мешочек для хранения</t>
+          <t>стимулятор, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3773,12 +3785,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Анальная цепочка с кольцом Love Beam</t>
+          <t>Волнообразная анальная пробка на</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-21794-1299</t>
+          <t>id-21949-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3794,12 +3806,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21794/21794_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21794/21794_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21949/21949_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21949/21949_2_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная цепочка Love Beam это идеальный вариант для тех, кто хочет испытать новые ощущения познать уникальные грани наслаждения. Модель выполнена из высококачественного медицинского силикона, приятна на ощупь. Зауженный кончик обеспечивает аккуратное введение, а разный диаметр звеньев подарит космические эмоции. Подходит для двойного проникновения. Эргономичная петля в форме сердечка обеспечивает удобство в использовании и контроль. Материал изделия гарантирует максимальный уровень гигиеничности и не требует специального ухода. Используйте смазку на водной основе. Анальная цепочка с кольцом Love Beam.  Анальная цепочка с кольцом Love Beam. Модель: lefri-05510. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Vesta  для тех, кто готов стонать от наслаждения. Изделие имеет заостренный кончик и 2 расширения, которые простимулирует каждый миллиметр вашего тела. Пробка изготовлена из гипоаллергенного медицинского силикона. Этот материал имеет долгий срок службы и довольно прост в уходе. Кроме этого у пробки есть ограничитель в виде плоского основания, что позволяет сосредоточиться исключительно на приятных ощущениях, не переживая за безопасность использования. Пробуйте, экспериментируйте и наслаждайтесь каждым моментом. Волнообразная анальная пробка на присоске VESTA.  Волнообразная анальная пробка на присоске VESTA. Модель: lefri-05519. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3837,27 +3849,27 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>20.9</v>
+        <v>13.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>16.5</v>
+        <v>12.1</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.41</v>
+        <v>3.08</v>
       </c>
       <c r="AG26" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
@@ -3871,7 +3883,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>анальная цепочка, мешочек для хранения</t>
+          <t>анальная пробка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3907,12 +3919,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Анальная цепочка с кольцом Heart Ray</t>
+          <t>Силиконовая анальная пробка на присоске</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-21795-1299</t>
+          <t>id-22264-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3928,17 +3940,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21795/21795_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21795/21795_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22264/22264_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22264/22264_2_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная цепочка Heart Ray  это новая вершина удовольствия. Изделие состоит из 6 звеньев разных размеров. Гладкая поверхность и разный диаметр шариков позволят вам получить массу наслаждения и пройти все грани удовольствия. Петля в форме сердца способствует комфортному введению и извлечению. Шарики изготовлены из высококачественного силикона. Они приятны на ощупь и абсолютно безвредны для здоровья. Ощутите новый приятный эротический опыт, который вы сможете запомнить на долго. Анальная цепочка с кольцом Heart Ray.  Анальная цепочка с кольцом Heart Ray. Модель: lefri-05512. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Gravity для тех, кто готов познать истинное наслаждение. Изделие выполнено из упругого и нежного материала, который быстро принимает температуру тела. Средняя длина подойдет как экспертам в области анальных удовольствий, так и новичкам. Анальная пробка Gravity имеет острый кончик, что максимально облегчает процесс введения. А плоское основание ограничивает полное проникновение пробки, что гарантирует безопасность каждого использования. Разнообразьте свою сексуальную жизнь и добавьте в неё ярких незабываемых ощущений!.Силиконовая анальная пробка на присоске Core GRAVITY-L.  Силиконовая анальная пробка на присоске Core GRAVITY-L. Модель: lefri-05522l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3971,27 +3983,27 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>19.47</v>
+        <v>13.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.7</v>
+        <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>17.7</v>
+        <v>12.5</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>16.5</v>
+        <v>11.55</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.64</v>
+        <v>3.19</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
@@ -4005,7 +4017,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>стимулятор, мешочек для хранения</t>
+          <t>анальная пробка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -4041,12 +4053,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Анальный стимулятор на присоске с</t>
+          <t>Небольшая анальная пробка на присоске</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-21791-1299</t>
+          <t>id-21788-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -4062,12 +4074,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21791/21791_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21791/21791_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21788/21788_1_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Vesta  для тех, кто готов стонать от наслаждения. Изделие имеет заостренный кончик и 2 расширения, которые простимулирует каждый миллиметр вашего тела. Пробка изготовлена из гипоаллергенного медицинского силикона. Этот материал имеет долгий срок службы и довольно прост в уходе. Кроме этого у пробки есть ограничитель в виде плоского основания, что позволяет сосредоточиться исключительно на приятных ощущениях, не переживая за безопасность использования. Пробуйте, экспериментируйте и наслаждайтесь каждым моментом. Анальный стимулятор на присоске с загнутым кончиком VESTA.  Анальный стимулятор на присоске с загнутым кончиком VESTA. Модель: lefri-05518. Секс-игрушки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Gravity  для тех, кто готов познать истинное наслаждение. Изделие выполнено из мягкого и нежного материала, который быстро принимает температуру тела. Средняя длина подойдет как экспертам в области анальных удовольствий, так и новичкам. Анальная пробка Gravity имеет острый кончик, что максимально облегчает процесс введения, а плоское основание ограничивает полное проникновение пробки, что гарантирует безопасность каждого использования. Разнообразьте свою сексуальную жизнь и добавьте в неё ярких незабываемых ощущений!.Небольшая анальная пробка на присоске Gravity-S.  Небольшая анальная пробка на присоске Gravity-S. Модель: lefri-05522s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -4105,27 +4117,27 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>13.75</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
-        <v>12.1</v>
+        <v>9.9</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.08</v>
+        <v>2.53</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
@@ -4139,7 +4151,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>стимулятор, мешочек для хранения</t>
+          <t>пробочка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -4175,12 +4187,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Волнообразная анальная пробка на</t>
+          <t>Силиконовая анальная пробка на присоске</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-21949-1299</t>
+          <t>id-25375-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -4196,12 +4208,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21949/21949_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21949/21949_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25375/25375_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25375/25375_2_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Vesta  для тех, кто готов стонать от наслаждения. Изделие имеет заостренный кончик и 2 расширения, которые простимулирует каждый миллиметр вашего тела. Пробка изготовлена из гипоаллергенного медицинского силикона. Этот материал имеет долгий срок службы и довольно прост в уходе. Кроме этого у пробки есть ограничитель в виде плоского основания, что позволяет сосредоточиться исключительно на приятных ощущениях, не переживая за безопасность использования. Пробуйте, экспериментируйте и наслаждайтесь каждым моментом. Волнообразная анальная пробка на присоске VESTA.  Волнообразная анальная пробка на присоске VESTA. Модель: lefri-05519. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Gravity  для тех, кто готов познать истинное наслаждение. Изделие выполнено из мягкого и нежного материала, который быстро принимает температуру тела. Средняя длина подойдет как экспертам в области анальных удовольствий, так и новичкам. Анальная пробка Gravity имеет острый кончик, что максимально облегчает процесс введения. А плоское основание ограничивает полное проникновение пробки, что гарантирует безопасность каждого использования. Разнообразьте свою сексуальную жизнь и добавьте в неё ярких незабываемых ощущений!.Силиконовая анальная пробка на присоске Core GRAVITY-M.  Силиконовая анальная пробка на присоске Core GRAVITY-M. Модель: lefri-05523m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: бордовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4239,27 +4251,27 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>13.75</v>
+        <v>12.54</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>12.1</v>
+        <v>10.45</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.08</v>
+        <v>2.86</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
@@ -4273,7 +4285,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>анальная пробка, мешочек для хранения</t>
+          <t>пробка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4309,12 +4321,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Силиконовая анальная пробка на присоске</t>
+          <t>Небольшая анальная пробочка MATTER-S</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-22264-1299</t>
+          <t>id-21792-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4330,17 +4342,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22264/22264_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22264/22264_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21792/21792_1_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Gravity для тех, кто готов познать истинное наслаждение. Изделие выполнено из упругого и нежного материала, который быстро принимает температуру тела. Средняя длина подойдет как экспертам в области анальных удовольствий, так и новичкам. Анальная пробка Gravity имеет острый кончик, что максимально облегчает процесс введения. А плоское основание ограничивает полное проникновение пробки, что гарантирует безопасность каждого использования. Разнообразьте свою сексуальную жизнь и добавьте в неё ярких незабываемых ощущений!.Силиконовая анальная пробка на присоске Core GRAVITY-L.  Силиконовая анальная пробка на присоске Core GRAVITY-L. Модель: lefri-05522l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Matter  для тех, кто готов играть по-взрослому. Фигурная пробка имеет гладкий закругленный кончик, который обеспечивает комфортное и приятное проникновение. Изделие выполнено из безопасных гипоаллергенных материалов. Ограничительное основание делает эту игрушку абсолютно безопасной, поэтому во время стимуляции вы можете сконцентрироваться лишь на одном  на получении удовольствия. Небольшая анальная пробочка MATTER-S.  Небольшая анальная пробочка MATTER-S. Модель: lefri-05525s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -4373,27 +4385,27 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>13.75</v>
+        <v>9.57</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.55</v>
+        <v>8.25</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.19</v>
+        <v>2.86</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
@@ -4407,7 +4419,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>анальная пробка, фирменный мешочек для хранения</t>
+          <t>анальная пробка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4427,7 +4439,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4438,17 +4450,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Небольшая анальная пробка на присоске</t>
+          <t>Шарики в силиконовой оболочке со</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-21788-1299</t>
+          <t>id-21804-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4464,12 +4476,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21788/21788_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21804/21804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21804/21804_2_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Gravity  для тех, кто готов познать истинное наслаждение. Изделие выполнено из мягкого и нежного материала, который быстро принимает температуру тела. Средняя длина подойдет как экспертам в области анальных удовольствий, так и новичкам. Анальная пробка Gravity имеет острый кончик, что максимально облегчает процесс введения, а плоское основание ограничивает полное проникновение пробки, что гарантирует безопасность каждого использования. Разнообразьте свою сексуальную жизнь и добавьте в неё ярких незабываемых ощущений!.Небольшая анальная пробка на присоске Gravity-S.  Небольшая анальная пробка на присоске Gravity-S. Модель: lefri-05522s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Шарики Кегеля со смещенным центом тяжести Delta  идеальный вариант для женщин, которые хотят начать тренировку интимных мышц. Изделие выполнено из качественного медицинского силикона премиум класса. Вы сможете не только восстановить эластичность мышц влагалища, но и получить при этом удовольствие от самого процесса. Изделие оснащено силиконовым шнурком для удобства и контроля во время использования. Постоянные тренировки гарантированно изменят вашу интимную жизнь в более приятную сторону и добавят в ваши отношения ещё больше страсти и огня. Шарики в силиконовой оболочке со смещенным центром тяжести DELTA.  Шарики в силиконовой оболочке со смещенным центром тяжести DELTA. Модель: lefri-05532. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: бежево-персиковый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4506,28 +4518,18 @@
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>10</v>
-      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>2.53</v>
+        <v>3.63</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
@@ -4541,7 +4543,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>пробочка, мешочек для хранения</t>
+          <t>шарики, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4561,7 +4563,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4572,17 +4574,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Силиконовая анальная пробка на присоске</t>
+          <t>Голубые шарики в силиконовой оболочке</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-25375-1299</t>
+          <t>id-21797-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4598,12 +4600,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25375/25375_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25375/25375_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21797/21797_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21797/21797_2_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Gravity  для тех, кто готов познать истинное наслаждение. Изделие выполнено из мягкого и нежного материала, который быстро принимает температуру тела. Средняя длина подойдет как экспертам в области анальных удовольствий, так и новичкам. Анальная пробка Gravity имеет острый кончик, что максимально облегчает процесс введения. А плоское основание ограничивает полное проникновение пробки, что гарантирует безопасность каждого использования. Разнообразьте свою сексуальную жизнь и добавьте в неё ярких незабываемых ощущений!.Силиконовая анальная пробка на присоске Core GRAVITY-M.  Силиконовая анальная пробка на присоске Core GRAVITY-M. Модель: lefri-05523m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: бордовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Шарики Кегеля со смещенным центом тяжести Sirius сделают ваш секс незабываемым, а оргазмы невероятно яркими. Изделие выполнено из гипоаллергенного медицинского силикона. Силиконовый шнурок обеспечивает легкое извлечение изделия из влагалища после завершения упражнений. Регулярные тренировки укрепят мышцы влагалища и сделают ваш секс более ярким. Выполнение упражнений принесет вам удовольствие и качественно скажется на вашей интимной жизни. Тренируйтесь и не отказывайте себе в наслаждении!.Голубые шарики в силиконовой оболочке SIRIUS.  Голубые шарики в силиконовой оболочке SIRIUS. Модель: lefri-05535. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: голубой. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4640,28 +4642,18 @@
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>10.45</v>
-      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="n">
-        <v>2.86</v>
+        <v>3.63</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
@@ -4675,7 +4667,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>пробка, фирменный мешочек для хранения</t>
+          <t>шарики, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4695,7 +4687,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4706,21 +4698,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Небольшая анальная пробочка MATTER-S</t>
+          <t>Базовые трусики стринги из сеточки LXL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-21792-1299</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+          <t>id-24692-1299</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>99999</v>
@@ -4732,17 +4732,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21792/21792_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_5_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Matter  для тех, кто готов играть по-взрослому. Фигурная пробка имеет гладкий закругленный кончик, который обеспечивает комфортное и приятное проникновение. Изделие выполнено из безопасных гипоаллергенных материалов. Ограничительное основание делает эту игрушку абсолютно безопасной, поэтому во время стимуляции вы можете сконцентрироваться лишь на одном  на получении удовольствия. Небольшая анальная пробочка MATTER-S.  Небольшая анальная пробочка MATTER-S. Модель: lefri-05525s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">.Базовые трусики стринги из сеточки LXL.  Базовые трусики стринги из сеточки LXL. Модель: lefri-05948lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>91% полиэстер, 9% эластан</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4774,29 +4774,15 @@
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>8.699999999999999</v>
-      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4809,7 +4795,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>анальная пробка, мешочек для хранения</t>
+          <t>трусики</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4829,7 +4815,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4845,16 +4831,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Шарики в силиконовой оболочке со</t>
+          <t>Базовые трусики бразилиано из сеточки</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-21804-1299</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+          <t>id-24687-1299</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>99999</v>
@@ -4866,32 +4860,32 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21804/21804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21804/21804_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24687/24687_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24687/24687_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24687/24687_4_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Шарики Кегеля со смещенным центом тяжести Delta  идеальный вариант для женщин, которые хотят начать тренировку интимных мышц. Изделие выполнено из качественного медицинского силикона премиум класса. Вы сможете не только восстановить эластичность мышц влагалища, но и получить при этом удовольствие от самого процесса. Изделие оснащено силиконовым шнурком для удобства и контроля во время использования. Постоянные тренировки гарантированно изменят вашу интимную жизнь в более приятную сторону и добавят в ваши отношения ещё больше страсти и огня. Шарики в силиконовой оболочке со смещенным центром тяжести DELTA.  Шарики в силиконовой оболочке со смещенным центром тяжести DELTA. Модель: lefri-05532. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: бежево-персиковый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">.Базовые трусики бразилиано из сеточки SM.  Базовые трусики бразилиано из сеточки SM. Модель: lefri-05949smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>91% полиэстер, 9% эластан</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4915,12 +4909,8 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4933,7 +4923,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>шарики, мешочек для хранения</t>
+          <t>трусики</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4953,7 +4943,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4969,16 +4959,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Голубые шарики в силиконовой оболочке</t>
+          <t>Базовые трусики стринги из сеточки LXL</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-21797-1299</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>id-24690-1299</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>99999</v>
@@ -4990,17 +4988,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21797/21797_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21797/21797_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_5_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Шарики Кегеля со смещенным центом тяжести Sirius сделают ваш секс незабываемым, а оргазмы невероятно яркими. Изделие выполнено из гипоаллергенного медицинского силикона. Силиконовый шнурок обеспечивает легкое извлечение изделия из влагалища после завершения упражнений. Регулярные тренировки укрепят мышцы влагалища и сделают ваш секс более ярким. Выполнение упражнений принесет вам удовольствие и качественно скажется на вашей интимной жизни. Тренируйтесь и не отказывайте себе в наслаждении!.Голубые шарики в силиконовой оболочке SIRIUS.  Голубые шарики в силиконовой оболочке SIRIUS. Модель: lefri-05535. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: голубой. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">.Базовые трусики стринги из сеточки LXL.  Базовые трусики стринги из сеточки LXL. Модель: lefri-05950lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -5015,7 +5013,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>91% полиэстер, 9% эластан</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -5039,12 +5037,8 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5057,7 +5051,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>шарики, мешочек для хранения</t>
+          <t>трусики</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -5093,22 +5087,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Базовые трусики стринги из сеточки LXL</t>
+          <t>Базовые трусики стринги из сеточки SM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-24692-1299</t>
+          <t>id-24689-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -5122,12 +5116,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24692/24692_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_5_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Базовые трусики стринги из сеточки LXL.  Базовые трусики стринги из сеточки LXL. Модель: lefri-05948lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">.Базовые трусики стринги из сеточки SM.  Базовые трусики стринги из сеточки SM. Модель: lefri-05950smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -5205,7 +5199,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -5221,22 +5215,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Базовые трусики бразилиано из сеточки</t>
+          <t>Контактный комбинезон со стразами в</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-24687-1299</t>
+          <t>id-24694-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -5250,12 +5244,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24687/24687_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24687/24687_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24687/24687_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24694/24694_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24694/24694_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24694/24694_3_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Базовые трусики бразилиано из сеточки SM.  Базовые трусики бразилиано из сеточки SM. Модель: lefri-05949smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">.Контактный комбинезон со стразами в мелкую сеточку с рукавами Le Frivole.  Контактный комбинезон со стразами в мелкую сеточку с рукавами Le Frivole. Модель: lefri-05962slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5265,17 +5259,17 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>91% полиэстер, 9% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5313,7 +5307,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>трусики</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -5333,7 +5327,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -5349,22 +5343,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Базовые трусики стринги из сеточки LXL</t>
+          <t>Сверкающие колготки со стразами в</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-24690-1299</t>
+          <t>id-24684-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -5378,12 +5372,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24690/24690_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_4_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Базовые трусики стринги из сеточки LXL.  Базовые трусики стринги из сеточки LXL. Модель: lefri-05950lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Эластичные черные колготки в мелкую сеточку сплошь покрыты сверкающими стразами разного диаметра, создавая нарядный образ. От такой девушки будет невозможно отвезти глаза. . Сверкающие колготки со стразами в мелкую сеточку SM.  Сверкающие колготки со стразами в мелкую сеточку SM. Модель: lefri-05965smb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5403,7 +5397,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>91% полиэстер, 9% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5441,7 +5435,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>трусики</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5461,7 +5455,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -5477,24 +5471,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Базовые трусики стринги из сеточки SM</t>
+          <t>Вакуумный клиторальный стимулятор с</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-24689-1299</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-25450-1299</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>99999</v>
@@ -5506,17 +5492,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24689/24689_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25450/25450_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25450/25450_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25450/25450_1_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Базовые трусики стринги из сеточки SM.  Базовые трусики стринги из сеточки SM. Модель: lefri-05950smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиэстер, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Роскошный вибратор Phoenix сочного красного цвета  это потрясающе функциональный девайс! С ним каждый новый оргазм будет уникальным за счет большого разнообразия сочетаний 8-ми режимов глубокой вибрации и 10-ти уносящих в космос интенсивностей вакуумной стимуляции. Анатомический изгиб на конце вводимой части гарантирует плотное прилегание и феерические ощущения в области точки G, а регулируемая бесконтактная стимуляция клитора доведет Вас до пика двойного оргазма! Приятный на ощупь материал не вызывает аллергии и раздражения, а 1,5 часа работы без подзарядки гарантируют длительное наслаждение. Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов).  Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов). Модель: lefri-06109. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5531,7 +5517,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>91% полиэстер, 9% эластан</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5548,15 +5534,29 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="Y39" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>18</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
+      <c r="AD39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AH39" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5569,7 +5569,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>трусики</t>
+          <t>стимулятор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -5605,24 +5605,16 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Контактный комбинезон со стразами в</t>
+          <t>Вакуумный клиторальный стимулятор с</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-24694-1299</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25452-1299</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>99999</v>
@@ -5634,17 +5626,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24694/24694_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24694/24694_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24694/24694_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25452/25452_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25452/25452_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25452/25452_3_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Контактный комбинезон со стразами в мелкую сеточку с рукавами Le Frivole.  Контактный комбинезон со стразами в мелкую сеточку с рукавами Le Frivole. Модель: lefri-05962slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Полюбившаяся модель бесконтактного стимулятора Halo получила перевоплощение в своей улучшенной версии Halo 2! Клиторальный стимулятор страстного красного цвета несомненно искупает тебя в волнах наслаждения. 10 вариантов интенсивности вакуумной стимуляции обеспечат мягкое и постепенное нарастание приятных ощущений, а нагреваемая ручка с 8 режимами вибрации усилит приток крови к эрогенным зонам и позволит простимулировать стенки влагалища и точку G. Испытай полный диапазон удовольствий используя водонепроницаемый массажер в горячей ванне с пеной или под душем!.Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов).  Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов). Модель: lefri-06111. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: морской волны с черным. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5659,7 +5651,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5676,15 +5668,29 @@
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="Y40" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>19.3</v>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
+      <c r="AD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>3.15</v>
+      </c>
       <c r="AH40" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5697,7 +5703,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>стимулятор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5717,7 +5723,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -5733,24 +5739,16 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Сверкающие колготки со стразами в</t>
+          <t>Вакуумный клиторальный стимулятор с</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-24684-1299</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-25451-1299</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>99999</v>
@@ -5762,17 +5760,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24684/24684_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25451/25451_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25451/25451_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25451/25451_3_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичные черные колготки в мелкую сеточку сплошь покрыты сверкающими стразами разного диаметра, создавая нарядный образ. От такой девушки будет невозможно отвезти глаза. . Сверкающие колготки со стразами в мелкую сеточку SM.  Сверкающие колготки со стразами в мелкую сеточку SM. Модель: lefri-05965smb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Полюбившаяся модель бесконтактного стимулятора Halo получила перевоплощение в своей улучшенной версии Halo 2! Клиторальный стимулятор страстного красного цвета несомненно искупает тебя в волнах наслаждения. 10 вариантов интенсивности вакуумной стимуляции обеспечат мягкое и постепенное нарастание приятных ощущений, а нагреваемая ручка с 8 режимами вибрации усилит приток крови к эрогенным зонам и позволит простимулировать стенки влагалища и точку G. Испытай полный диапазон удовольствий используя водонепроницаемый массажер в горячей ванне с пеной или под душем!.Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов).  Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов). Модель: lefri-06113. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: красный с черным. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5787,7 +5785,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5804,15 +5802,29 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="Y41" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>19.3</v>
+      </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>3.15</v>
+      </c>
       <c r="AH41" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5825,7 +5837,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>колготки</t>
+          <t>стимулятор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5861,12 +5873,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Вакуумный клиторальный стимулятор с</t>
+          <t>Перезаряжаемый вибратор Lepus для</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-25450-1299</t>
+          <t>id-25445-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5882,12 +5894,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25450/25450_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25450/25450_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25450/25450_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25445/25445_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25445/25445_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25445/25445_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Роскошный вибратор Phoenix сочного красного цвета  это потрясающе функциональный девайс! С ним каждый новый оргазм будет уникальным за счет большого разнообразия сочетаний 8-ми режимов глубокой вибрации и 10-ти уносящих в космос интенсивностей вакуумной стимуляции. Анатомический изгиб на конце вводимой части гарантирует плотное прилегание и феерические ощущения в области точки G, а регулируемая бесконтактная стимуляция клитора доведет Вас до пика двойного оргазма! Приятный на ощупь материал не вызывает аллергии и раздражения, а 1,5 часа работы без подзарядки гарантируют длительное наслаждение. Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов).  Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов). Модель: lefri-06109. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор-кролик Lepus, пользующийся несомненным успехом у девушек и женщин, выполнен в благородном сливовом цвете. Талантливо имитируя оральные ласки он дарит наслаждение за наслаждением без пресыщения с помощью встроенного режима оргазма. А рельефный гибкий ствол для внутренней стимуляции длиной 12 см имеет 8 режимов вибрации, которые, несомненного, усилят ощущения! Благодаря магнитной зарядке полностью водонепроницаем. Перезаряжаемый вибратор Lepus для двойной стимуляции (8 режимов).  Перезаряжаемый вибратор Lepus для двойной стимуляции (8 режимов). Модель: lefri-06115. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5925,27 +5937,27 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="n">
-        <v>19.8</v>
+        <v>23.43</v>
       </c>
       <c r="Z42" t="n">
-        <v>18</v>
+        <v>21.3</v>
       </c>
       <c r="AA42" t="n">
-        <v>18</v>
+        <v>21.3</v>
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>13.2</v>
+        <v>12.65</v>
       </c>
       <c r="AF42" t="n">
-        <v>3.52</v>
+        <v>3.85</v>
       </c>
       <c r="AG42" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
@@ -5959,7 +5971,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>стимулятор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
+          <t>вибратор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5995,12 +6007,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Вакуумный клиторальный стимулятор с</t>
+          <t>Перезаряжаемый вибратор для точки G</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-25452-1299</t>
+          <t>id-25443-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -6016,12 +6028,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25452/25452_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25452/25452_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25452/25452_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25443/25443_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25443/25443_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25443/25443_3_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полюбившаяся модель бесконтактного стимулятора Halo получила перевоплощение в своей улучшенной версии Halo 2! Клиторальный стимулятор страстного красного цвета несомненно искупает тебя в волнах наслаждения. 10 вариантов интенсивности вакуумной стимуляции обеспечат мягкое и постепенное нарастание приятных ощущений, а нагреваемая ручка с 8 режимами вибрации усилит приток крови к эрогенным зонам и позволит простимулировать стенки влагалища и точку G. Испытай полный диапазон удовольствий используя водонепроницаемый массажер в горячей ванне с пеной или под душем!.Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов).  Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов). Модель: lefri-06111. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: морской волны с черным. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Роскошный вибратор Apus способен прочувствовать и промассажировать всю внутреннюю поверхность влагалища, особое внимание уделяя точке G. В этом тихом, но мощном гаджете 8 режимов вибрации для постепенного повышения градуса возбуждения и отдельная кнопка погружения в пучину оргазмических ощущений. Идеально гладкий гнущийся ствол с естественным загибом выполнен из полностью безопасного силикона. Удобен как для соло, так и для совместной чувственной игры. Не отказывай себе в удовольствии!.Перезаряжаемый вибратор для точки G Apus (8 режимов).  Перезаряжаемый вибратор для точки G Apus (8 режимов). Модель: lefri-06116. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: нежно-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -6059,27 +6071,27 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>21.23</v>
+        <v>23.43</v>
       </c>
       <c r="Z43" t="n">
-        <v>19.3</v>
+        <v>21.3</v>
       </c>
       <c r="AA43" t="n">
-        <v>19.3</v>
+        <v>21.3</v>
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE43" t="n">
-        <v>13.2</v>
+        <v>17.6</v>
       </c>
       <c r="AF43" t="n">
-        <v>3.465</v>
+        <v>3.85</v>
       </c>
       <c r="AG43" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
@@ -6093,7 +6105,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>стимулятор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
+          <t>вибратор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -6129,12 +6141,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Вакуумный клиторальный стимулятор с</t>
+          <t>Перезаряжаемый вибратор для точки G</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-25451-1299</t>
+          <t>id-25444-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -6150,12 +6162,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25451/25451_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25451/25451_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25451/25451_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25444/25444_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25444/25444_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25444/25444_1_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полюбившаяся модель бесконтактного стимулятора Halo получила перевоплощение в своей улучшенной версии Halo 2! Клиторальный стимулятор страстного красного цвета несомненно искупает тебя в волнах наслаждения. 10 вариантов интенсивности вакуумной стимуляции обеспечат мягкое и постепенное нарастание приятных ощущений, а нагреваемая ручка с 8 режимами вибрации усилит приток крови к эрогенным зонам и позволит простимулировать стенки влагалища и точку G. Испытай полный диапазон удовольствий используя водонепроницаемый массажер в горячей ванне с пеной или под душем!.Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов).  Вакуумный клиторальный стимулятор с вибрацией и подогревом Halo 2 (8+10 режимов). Модель: lefri-06113. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: красный с черным. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Роскошный вибратор Apus способен прочувствовать и промассажировать всю внутреннюю поверхность влагалища, особое внимание уделяя точке G. В этом тихом, но мощном гаджете 8 режимов вибрации для постепенного повышения градуса возбуждения и отдельная кнопка погружения в пучину оргазмических ощущений. Идеально гладкий гнущийся ствол с естественным загибом выполнен из полностью безопасного силикона. Удобен как для соло, так и для совместной чувственной игры. Не отказывай себе в удовольствии!.Перезаряжаемый вибратор для точки G Apus (8 режимов).  Перезаряжаемый вибратор для точки G Apus (8 режимов). Модель: lefri-06117. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: серый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6193,27 +6205,27 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>21.23</v>
+        <v>23.43</v>
       </c>
       <c r="Z44" t="n">
-        <v>19.3</v>
+        <v>21.3</v>
       </c>
       <c r="AA44" t="n">
-        <v>19.3</v>
+        <v>21.3</v>
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE44" t="n">
-        <v>13.2</v>
+        <v>17.6</v>
       </c>
       <c r="AF44" t="n">
-        <v>3.465</v>
+        <v>3.85</v>
       </c>
       <c r="AG44" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
@@ -6227,7 +6239,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>стимулятор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
+          <t>вибратор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -6258,17 +6270,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор Lepus для</t>
+          <t>Перезаряжаемый вибратор для пар на</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-25445-1299</t>
+          <t>id-25447-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -6284,12 +6296,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25445/25445_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25445/25445_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25445/25445_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_1_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор-кролик Lepus, пользующийся несомненным успехом у девушек и женщин, выполнен в благородном сливовом цвете. Талантливо имитируя оральные ласки он дарит наслаждение за наслаждением без пресыщения с помощью встроенного режима оргазма. А рельефный гибкий ствол для внутренней стимуляции длиной 12 см имеет 8 режимов вибрации, которые, несомненного, усилят ощущения! Благодаря магнитной зарядке полностью водонепроницаем. Перезаряжаемый вибратор Lepus для двойной стимуляции (8 режимов).  Перезаряжаемый вибратор Lepus для двойной стимуляции (8 режимов). Модель: lefri-06115. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Эта нежная и бархатистая игрушка с двумя мощными вибро-элементами сделана из безопасного силикона цвета морской волны позволит усилить общее удовольствие во время секса за счёт одновременной стимуляции фаллоса партнёра, вагинальных стенок и клитора партнёрши. Регулируйте уровень вибрации пультом ДУ с 8-ю уникальными режимами и глубокое чувственное наслаждение на заставит себя ждать! Ты можешь использовать его в одиночку, а можешь взять с собой и поиграть в скрытую публичность! Работает 1,5 часа без подзарядки и легко моется под водой. Перезаряжаемый вибратор для пар на дистанционном управлении INFINITE Fera (8 режимов).  Перезаряжаемый вибратор для пар на дистанционном управлении INFINITE Fera (8 режимов). Модель: lefri-06119. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: морской волны с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6309,7 +6321,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -6324,31 +6336,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.41</v>
+      </c>
       <c r="Y45" t="n">
-        <v>23.43</v>
+        <v>9.9</v>
       </c>
       <c r="Z45" t="n">
-        <v>21.3</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>21.3</v>
+        <v>9</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>3.5</v>
-      </c>
+        <v>8.25</v>
+      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6361,7 +6373,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>вибратор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
+          <t>вибратор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6381,7 +6393,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -6392,17 +6404,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор для точки G</t>
+          <t>Перезаряжаемый массажер простаты на</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-25443-1299</t>
+          <t>id-25446-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6418,12 +6430,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25443/25443_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25443/25443_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25443/25443_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_4_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Роскошный вибратор Apus способен прочувствовать и промассажировать всю внутреннюю поверхность влагалища, особое внимание уделяя точке G. В этом тихом, но мощном гаджете 8 режимов вибрации для постепенного повышения градуса возбуждения и отдельная кнопка погружения в пучину оргазмических ощущений. Идеально гладкий гнущийся ствол с естественным загибом выполнен из полностью безопасного силикона. Удобен как для соло, так и для совместной чувственной игры. Не отказывай себе в удовольствии!.Перезаряжаемый вибратор для точки G Apus (8 режимов).  Перезаряжаемый вибратор для точки G Apus (8 режимов). Модель: lefri-06116. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: нежно-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Стильный и строгий черный анальный стимулятор Taurus предназначен для мужчин, которые не боятся экспериментов! Простота в управлении и анатомическая форма, обеспечивающая легкое проникновение, позволяют использовать его и в качестве массажера простаты и для получения взрывных оргазмов с помощью нескольких режимов вибрации! Эластичные кольца можно надеть на основание пениса и мошонку для дополнительной стимуляции. Нежное силиконовое покрытие - это современный качественный материал, который не содержит вредных веществ и легко моется. Перезаряжаемый массажер простаты на дистанционном управлении INFINITE Taurus (8 режимов).  Перезаряжаемый массажер простаты на дистанционном управлении INFINITE Taurus (8 режимов). Модель: lefri-06121. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6460,28 +6472,22 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>21.3</v>
-      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE46" t="n">
-        <v>17.6</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>3.85</v>
+        <v>2.64</v>
       </c>
       <c r="AG46" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
@@ -6495,7 +6501,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>вибратор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
+          <t>массажер простаты, пульт  дистанционного управления, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6515,7 +6521,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -6526,17 +6532,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор для точки G</t>
+          <t>Перезаряжаемый мини вибратор Skadi 10</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-25444-1299</t>
+          <t>id-25437-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6552,12 +6558,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25444/25444_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25444/25444_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25444/25444_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25437/25437_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25437/25437_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25437/25437_3_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Роскошный вибратор Apus способен прочувствовать и промассажировать всю внутреннюю поверхность влагалища, особое внимание уделяя точке G. В этом тихом, но мощном гаджете 8 режимов вибрации для постепенного повышения градуса возбуждения и отдельная кнопка погружения в пучину оргазмических ощущений. Идеально гладкий гнущийся ствол с естественным загибом выполнен из полностью безопасного силикона. Удобен как для соло, так и для совместной чувственной игры. Не отказывай себе в удовольствии!.Перезаряжаемый вибратор для точки G Apus (8 режимов).  Перезаряжаемый вибратор для точки G Apus (8 режимов). Модель: lefri-06117. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: серый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Несмотря на свои миниатюрные размеры мощный мини-вибратор Skadi способен удивить интенсивностью 10-и уникальных режимов вибрации. Его форма невероятна удобна для стимуляции эрогенных зон и подойдет и мужчине и женщине. Тихая, но мощная игрушка позволит получить захватывающий секс-опыт в самых неожиданных местах, а фирменный мешочек для хранения будет незаметен в Вашей сумочке и обеспечит гигиену. 1 час работы - 35 минут зарядки. Перезаряжаемый мини вибратор Skadi (10 режимов).  Перезаряжаемый мини вибратор Skadi (10 режимов). Модель: lefri-06124. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6595,27 +6601,23 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="n">
-        <v>23.43</v>
+        <v>13.2</v>
       </c>
       <c r="Z47" t="n">
-        <v>21.3</v>
+        <v>12</v>
       </c>
       <c r="AA47" t="n">
-        <v>21.3</v>
+        <v>12</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="n">
-        <v>3.85</v>
+        <v>2.2</v>
       </c>
       <c r="AG47" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
@@ -6629,7 +6631,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>вибратор, фирменный мешочек для хранения, магнитное зарядное USB-устройство, инструкция</t>
+          <t>мини вибратор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6649,7 +6651,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -6660,17 +6662,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор для пар на</t>
+          <t>Большая анальная пробка для ношения</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-25447-1299</t>
+          <t>id-25432-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6686,12 +6688,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25447/25447_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25432/25432_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25432/25432_2_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта нежная и бархатистая игрушка с двумя мощными вибро-элементами сделана из безопасного силикона цвета морской волны позволит усилить общее удовольствие во время секса за счёт одновременной стимуляции фаллоса партнёра, вагинальных стенок и клитора партнёрши. Регулируйте уровень вибрации пультом ДУ с 8-ю уникальными режимами и глубокое чувственное наслаждение на заставит себя ждать! Ты можешь использовать его в одиночку, а можешь взять с собой и поиграть в скрытую публичность! Работает 1,5 часа без подзарядки и легко моется под водой. Перезаряжаемый вибратор для пар на дистанционном управлении INFINITE Fera (8 режимов).  Перезаряжаемый вибратор для пар на дистанционном управлении INFINITE Fera (8 режимов). Модель: lefri-06119. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: морской волны с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Раскрой новые грани чувственности с черной стильной анальной пробкой Sphere! Она обладает необычной рельефной формой, что позволяет обеспечить легкое введение и вызывает дополнительные пикантные ощущения при использовании. Снабжена ограничительным основанием для безопасного использования. Благодаря использованию медицинского силикона не вызывает раздражения и легко моется. Большая анальная пробка для ношения Sphere L.  Большая анальная пробка для ношения Sphere L. Модель: lefri-06126l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6711,7 +6713,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6726,31 +6728,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>3.41</v>
-      </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
       <c r="Y48" t="n">
-        <v>9.9</v>
+        <v>12.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
+        <v>10.45</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.4</v>
+      </c>
       <c r="AH48" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6763,7 +6765,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>вибратор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
+          <t>анальная пробка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6794,17 +6796,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Перезаряжаемый массажер простаты на</t>
+          <t>Средняя анальная пробка для ношения</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-25446-1299</t>
+          <t>id-25425-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6820,12 +6822,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25446/25446_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25425/25425_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25425/25425_2_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильный и строгий черный анальный стимулятор Taurus предназначен для мужчин, которые не боятся экспериментов! Простота в управлении и анатомическая форма, обеспечивающая легкое проникновение, позволяют использовать его и в качестве массажера простаты и для получения взрывных оргазмов с помощью нескольких режимов вибрации! Эластичные кольца можно надеть на основание пениса и мошонку для дополнительной стимуляции. Нежное силиконовое покрытие - это современный качественный материал, который не содержит вредных веществ и легко моется. Перезаряжаемый массажер простаты на дистанционном управлении INFINITE Taurus (8 режимов).  Перезаряжаемый массажер простаты на дистанционном управлении INFINITE Taurus (8 режимов). Модель: lefri-06121. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Раскрой новые грани чувственности с черной стильной анальной пробкой Sphere! Она обладает необычной рельефной формой, что позволяет обеспечить легкое введение и вызывает дополнительные пикантные ощущения при использовании. Снабжена ограничительным основанием для безопасного использования. Благодаря использованию медицинского силикона не вызывает раздражения и легко моется. Средняя анальная пробка для ношения Sphere M.  Средняя анальная пробка для ношения Sphere M. Модель: lefri-06126m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6862,22 +6864,28 @@
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>9</v>
+      </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AF49" t="n">
-        <v>2.64</v>
+        <v>3.52</v>
       </c>
       <c r="AG49" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
@@ -6891,7 +6899,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>массажер простаты, пульт  дистанционного управления, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
+          <t>анальная пробка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6927,12 +6935,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Перезаряжаемый мини вибратор Skadi 10</t>
+          <t>Малая анальная пробка для ношения</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-25437-1299</t>
+          <t>id-25424-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6948,12 +6956,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25437/25437_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25437/25437_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25437/25437_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25424/25424_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25424/25424_2_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Несмотря на свои миниатюрные размеры мощный мини-вибратор Skadi способен удивить интенсивностью 10-и уникальных режимов вибрации. Его форма невероятна удобна для стимуляции эрогенных зон и подойдет и мужчине и женщине. Тихая, но мощная игрушка позволит получить захватывающий секс-опыт в самых неожиданных местах, а фирменный мешочек для хранения будет незаметен в Вашей сумочке и обеспечит гигиену. 1 час работы - 35 минут зарядки. Перезаряжаемый мини вибратор Skadi (10 режимов).  Перезаряжаемый мини вибратор Skadi (10 режимов). Модель: lefri-06124. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Раскрой новые грани чувственности с черной стильной анальной пробкой Sphere! Она обладает необычной рельефной формой, что позволяет обеспечить легкое введение и вызывает дополнительные пикантные ощущения при использовании. Снабжена ограничительным основанием для безопасного использования. Благодаря использованию медицинского силикона не вызывает раздражения и легко моется. Малая анальная пробка для ношения Sphere S.  Малая анальная пробка для ношения Sphere S. Модель: lefri-06126s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6991,23 +6999,27 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="n">
-        <v>13.2</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AA50" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
+      <c r="AD50" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>7.04</v>
+      </c>
       <c r="AF50" t="n">
-        <v>2.2</v>
+        <v>2.86</v>
       </c>
       <c r="AG50" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
@@ -7021,7 +7033,7 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>мини вибратор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
+          <t>анальная пробка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -7041,7 +7053,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -7052,17 +7064,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Большая анальная пробка для ношения</t>
+          <t>Мастурбатор-вагина в тубе Miss</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-25432-1299</t>
+          <t>id-25440-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -7078,12 +7090,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25432/25432_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25432/25432_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_4_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Раскрой новые грани чувственности с черной стильной анальной пробкой Sphere! Она обладает необычной рельефной формой, что позволяет обеспечить легкое введение и вызывает дополнительные пикантные ощущения при использовании. Снабжена ограничительным основанием для безопасного использования. Благодаря использованию медицинского силикона не вызывает раздражения и легко моется. Большая анальная пробка для ношения Sphere L.  Большая анальная пробка для ношения Sphere L. Модель: lefri-06126l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Супер мягкий и нежный мастурбатор Miss обеспечит вам новые взрывные ощущения наедине с собой! Внутренний рельеф с продольно-поперечной стимуляцией максимально приближен к реальному анатомическому строению. Удобная форма создает ощущение идеального полного прилегания к пенису и позволяет регулировать интенсивность стимуляции, а узкий вход обеспечивает плотный обхват! Долговечен и подходит под любой размер. 1. Супер мягкий материал2. Длинная внутренняя часть3. Подходит под любой размер4. Легко мыть5. Долговечен.Мастурбатор-вагина в тубе Miss.  Мастурбатор-вагина в тубе Miss. Модель: lefri-06127. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный с черным. Материал: нежный TPE (вторая кожа), пластик. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -7103,7 +7115,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>нежный TPE (вторая кожа), пластик</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -7118,31 +7130,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="W51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>7.15</v>
+      </c>
       <c r="Y51" t="n">
-        <v>12.1</v>
+        <v>18.7</v>
       </c>
       <c r="Z51" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA51" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7155,7 +7163,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>анальная пробка, фирменный мешочек для хранения</t>
+          <t>мастурбатор в тубе</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -7186,17 +7194,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Средняя анальная пробка для ношения</t>
+          <t>Массажер простаты с вибрацией Titan 10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-25425-1299</t>
+          <t>id-25434-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -7212,12 +7220,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25425/25425_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25425/25425_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25434/25434_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25434/25434_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25434/25434_3_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Раскрой новые грани чувственности с черной стильной анальной пробкой Sphere! Она обладает необычной рельефной формой, что позволяет обеспечить легкое введение и вызывает дополнительные пикантные ощущения при использовании. Снабжена ограничительным основанием для безопасного использования. Благодаря использованию медицинского силикона не вызывает раздражения и легко моется. Средняя анальная пробка для ношения Sphere M.  Средняя анальная пробка для ношения Sphere M. Модель: lefri-06126m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Функциональный массажер Titan из гигиеничного силикона строгого черного цвета подарит целое море радости страстному, темпераментному мужчине и поможет сохранить его интимное здоровье на долгие годы! 10 режимов позволяют выбрать свою интенсивность воздействия! Стимулятор промежности позволяет массажироватиь простату снаружи и изнутри. Добавьте смазку на водной основе, чтобы сделать ваш анальный опыт еще более приятным. Данный девайс без проблем переносит мытье под струей воды, поэтому Вы можете не беспокоится о чистоте и гигиене. Массажер простаты с вибрацией Titan (10 режимов).  Массажер простаты с вибрацией Titan (10 режимов). Модель: lefri-06132. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. AAA x 1 шт (в комплекте)Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -7255,27 +7263,27 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="n">
-        <v>9.9</v>
+        <v>16.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AA52" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE52" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AF52" t="n">
-        <v>3.52</v>
+        <v>3.025</v>
       </c>
       <c r="AG52" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
@@ -7289,7 +7297,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>анальная пробка, фирменный мешочек для хранения</t>
+          <t>стимулятор простаты, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -7325,12 +7333,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Малая анальная пробка для ношения</t>
+          <t>Большая анальная пробка для ношения</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-25424-1299</t>
+          <t>id-25431-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -7346,12 +7354,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25424/25424_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25424/25424_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25431/25431_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25431/25431_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25431/25431_3_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Раскрой новые грани чувственности с черной стильной анальной пробкой Sphere! Она обладает необычной рельефной формой, что позволяет обеспечить легкое введение и вызывает дополнительные пикантные ощущения при использовании. Снабжена ограничительным основанием для безопасного использования. Благодаря использованию медицинского силикона не вызывает раздражения и легко моется. Малая анальная пробка для ношения Sphere S.  Малая анальная пробка для ношения Sphere S. Модель: lefri-06126s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Идеальная секс-игрушка для любителей экспериментов в чувственных играх! Анальная пробка Lito возбуждающего красного цвета выполнена из гипоаллергенного шелковистого силикона. Безболезненно входит и легко проскальзывает внутрь благодаря округлой анатомической форме. Изогнутая форма основания послужит дополнительной стимуляцией промежности. Большая анальная пробка для ношения Lito L.  Большая анальная пробка для ношения Lito L. Модель: lefri-06133l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -7389,27 +7397,27 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="n">
-        <v>8.140000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="Z53" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>7.04</v>
+        <v>9.35</v>
       </c>
       <c r="AF53" t="n">
-        <v>2.86</v>
+        <v>3.08</v>
       </c>
       <c r="AG53" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
@@ -7423,7 +7431,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>анальная пробка, фирменный мешочек для хранения</t>
+          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7443,7 +7451,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -7454,17 +7462,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина в тубе Miss</t>
+          <t>Средняя анальная пробка для ношения</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-25440-1299</t>
+          <t>id-25430-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -7480,12 +7488,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25440/25440_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25430/25430_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25430/25430_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25430/25430_3_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супер мягкий и нежный мастурбатор Miss обеспечит вам новые взрывные ощущения наедине с собой! Внутренний рельеф с продольно-поперечной стимуляцией максимально приближен к реальному анатомическому строению. Удобная форма создает ощущение идеального полного прилегания к пенису и позволяет регулировать интенсивность стимуляции, а узкий вход обеспечивает плотный обхват! Долговечен и подходит под любой размер. 1. Супер мягкий материал2. Длинная внутренняя часть3. Подходит под любой размер4. Легко мыть5. Долговечен.Мастурбатор-вагина в тубе Miss.  Мастурбатор-вагина в тубе Miss. Модель: lefri-06127. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный с черным. Материал: нежный TPE (вторая кожа), пластик. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Идеальная секс-игрушка для любителей экспериментов в чувственных играх! Анальная пробка Lito возбуждающего красного цвета выполнена из гипоаллергенного шелковистого силикона. Безболезненно входит и легко проскальзывает внутрь благодаря округлой анатомической форме. Изогнутая форма основания послужит дополнительной стимуляцией промежности. Средняя анальная пробка для ношения Lito M.  Средняя анальная пробка для ношения Lito M. Модель: lefri-06133m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7505,7 +7513,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>нежный TPE (вторая кожа), пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -7520,27 +7528,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X54" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
       <c r="Y54" t="n">
-        <v>18.7</v>
+        <v>9.9</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA54" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
+      <c r="AD54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.5</v>
+      </c>
       <c r="AH54" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7553,7 +7565,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>мастурбатор в тубе</t>
+          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7584,17 +7596,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Массажер простаты с вибрацией Titan 10</t>
+          <t>Малая анальная пробка для ношения Lito</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-25434-1299</t>
+          <t>id-25429-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7610,12 +7622,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25434/25434_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25434/25434_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25434/25434_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25429/25429_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25429/25429_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25429/25429_3_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Функциональный массажер Titan из гигиеничного силикона строгого черного цвета подарит целое море радости страстному, темпераментному мужчине и поможет сохранить его интимное здоровье на долгие годы! 10 режимов позволяют выбрать свою интенсивность воздействия! Стимулятор промежности позволяет массажироватиь простату снаружи и изнутри. Добавьте смазку на водной основе, чтобы сделать ваш анальный опыт еще более приятным. Данный девайс без проблем переносит мытье под струей воды, поэтому Вы можете не беспокоится о чистоте и гигиене. Массажер простаты с вибрацией Titan (10 режимов).  Массажер простаты с вибрацией Titan (10 режимов). Модель: lefri-06132. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. AAA x 1 шт (в комплекте)Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Идеальная секс-игрушка для любителей экспериментов в чувственных играх! Анальная пробка Lito возбуждающего красного цвета выполнена из гипоаллергенного шелковистого силикона. Безболезненно входит и легко проскальзывает внутрь благодаря округлой анатомической форме. Изогнутая форма основания послужит дополнительной стимуляцией промежности. Малая анальная пробка для ношения Lito S.  Малая анальная пробка для ношения Lito S. Модель: lefri-06133s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7653,27 +7665,27 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="n">
-        <v>16.5</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="Z55" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="AA55" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>7.15</v>
       </c>
       <c r="AF55" t="n">
-        <v>3.025</v>
+        <v>2.31</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
@@ -7687,7 +7699,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>стимулятор простаты, фирменный мешочек для хранения</t>
+          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7707,7 +7719,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -7718,17 +7730,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Большая анальная пробка для ношения</t>
+          <t>Вагинальные шарики Alpha</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-25431-1299</t>
+          <t>id-25435-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -7744,12 +7756,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25431/25431_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25431/25431_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25431/25431_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25435/25435_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25435/25435_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25435/25435_3_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеальная секс-игрушка для любителей экспериментов в чувственных играх! Анальная пробка Lito возбуждающего красного цвета выполнена из гипоаллергенного шелковистого силикона. Безболезненно входит и легко проскальзывает внутрь благодаря округлой анатомической форме. Изогнутая форма основания послужит дополнительной стимуляцией промежности. Большая анальная пробка для ношения Lito L.  Большая анальная пробка для ношения Lito L. Модель: lefri-06133l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Упражнения, повышающие навыки управления интимными мышцами становятся все более популярными. Подобного рода тренировки не только способствуют укреплению интимного здоровья женщины, но и в последствии улучшают ее сексуальную жизнь. Вагинальные шарики Alpha без помех вводятся и снабжены хвостиком для легкого извлечения. Вес 88 грамм больше подойдет для уже имеющих опыт вумбилдинга дам. Рельефная поверхность увеличит чувственное воздействие. Изделие изготовлено из гипоаллергенного силикона. Оно компактно и может поместиться даже в небольшой дамской сумочке. Нежный аквамариновый цвет, бархатистая текстура - все это приятно порадует хозяйку секс-игрушки!.Вагинальные шарики Alpha.  Вагинальные шарики Alpha. Модель: lefri-06143. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: нежно-голубой. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7786,28 +7798,18 @@
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="n">
-        <v>3.08</v>
+        <v>3.85</v>
       </c>
       <c r="AG56" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
@@ -7821,7 +7823,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
+          <t>шарики, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7841,7 +7843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -7852,17 +7854,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Средняя анальная пробка для ношения</t>
+          <t>Вагинальные шарики Beta</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-25430-1299</t>
+          <t>id-25436-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -7878,12 +7880,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25430/25430_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25430/25430_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25430/25430_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25436/25436_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25436/25436_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25436/25436_3_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеальная секс-игрушка для любителей экспериментов в чувственных играх! Анальная пробка Lito возбуждающего красного цвета выполнена из гипоаллергенного шелковистого силикона. Безболезненно входит и легко проскальзывает внутрь благодаря округлой анатомической форме. Изогнутая форма основания послужит дополнительной стимуляцией промежности. Средняя анальная пробка для ношения Lito M.  Средняя анальная пробка для ношения Lito M. Модель: lefri-06133m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Два круглых шарика Beta нежного аквамаринового цвета на гибком силиконовом шнурке - это отличный тренажер для интимных мышц. Также они могут применяться для увеличения уровня возбуждения перед сексом. Наслаждаясь скольжением и удерживая их внутри лона, вы добьётесь как минимум удовольствия, а как максимум  тугих интимных объятий! Ведь в результате занятий фитнесом половых органов любая представительница прекрасной половины человечества станет более уверенной в себе и способной доставлять настоящее удовольствие своему партнеру. Мягкий и нежный силикон приятен к телу и прост в уходе. Вагинальные шарики Beta.  Вагинальные шарики Beta. Модель: lefri-06147. Секс-игрушки. Шарики &gt; Вагинальные не со смещенным центром тяжести. Цвет: нежно-голубой. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7920,28 +7922,18 @@
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>9</v>
-      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="n">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="AG57" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
@@ -7955,7 +7947,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
+          <t>шарики, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7975,7 +7967,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -7986,17 +7978,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Малая анальная пробка для ношения Lito</t>
+          <t>Рельефные вагинальные шарики Alcor</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-25429-1299</t>
+          <t>id-25582-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -8012,12 +8004,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25429/25429_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25429/25429_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25429/25429_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25582/25582_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25582/25582_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25582/25582_3_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеальная секс-игрушка для любителей экспериментов в чувственных играх! Анальная пробка Lito возбуждающего красного цвета выполнена из гипоаллергенного шелковистого силикона. Безболезненно входит и легко проскальзывает внутрь благодаря округлой анатомической форме. Изогнутая форма основания послужит дополнительной стимуляцией промежности. Малая анальная пробка для ношения Lito S.  Малая анальная пробка для ношения Lito S. Модель: lefri-06133s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вагинальные шарики сдержанного сливового цвета со смещенным центом тяжести Alcor - идеальный вариант для женщин, которые хотят начать тренировку интимных мышц. Изделие выполнено из 100% качественного медицинского и безопасного силикона. Вы сможете не только восстановить эластичность мышц влагалища, но и получить при этом удовольствие от самого процесса. Шарики оснащены силиконовым шнурком для удобства извлечения и контроля во время использования. Постоянные тренировки гарантированно изменят вашу интимную жизнь в более приятную сторону и добавят в ваши отношения ещё больше страсти и огня!.Рельефные вагинальные шарики Alcor.  Рельефные вагинальные шарики Alcor. Модель: lefri-06151. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -8055,27 +8047,23 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>8.029999999999999</v>
+        <v>10.45</v>
       </c>
       <c r="Z58" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="n">
-        <v>2.31</v>
+        <v>3.19</v>
       </c>
       <c r="AG58" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
@@ -8089,7 +8077,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
+          <t>шарики, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -8125,12 +8113,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Вагинальные шарики Alpha</t>
+          <t>Рельефные вагинальные шарики Alcor</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-25435-1299</t>
+          <t>id-25583-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -8146,12 +8134,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25435/25435_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25435/25435_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25435/25435_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25583/25583_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25583/25583_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25583/25583_3_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Упражнения, повышающие навыки управления интимными мышцами становятся все более популярными. Подобного рода тренировки не только способствуют укреплению интимного здоровья женщины, но и в последствии улучшают ее сексуальную жизнь. Вагинальные шарики Alpha без помех вводятся и снабжены хвостиком для легкого извлечения. Вес 88 грамм больше подойдет для уже имеющих опыт вумбилдинга дам. Рельефная поверхность увеличит чувственное воздействие. Изделие изготовлено из гипоаллергенного силикона. Оно компактно и может поместиться даже в небольшой дамской сумочке. Нежный аквамариновый цвет, бархатистая текстура - все это приятно порадует хозяйку секс-игрушки!.Вагинальные шарики Alpha.  Вагинальные шарики Alpha. Модель: lefri-06143. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: нежно-голубой. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вагинальные шарики сдержанного сливового цвета со смещенным центом тяжести Alcor - идеальный вариант для женщин, которые хотят начать тренировку интимных мышц. Изделие выполнено из 100% качественного медицинского и безопасного силикона. Вы сможете не только восстановить эластичность мышц влагалища, но и получить при этом удовольствие от самого процесса. Шарики оснащены силиконовым шнурком для удобства извлечения и контроля во время использования. Постоянные тренировки гарантированно изменят вашу интимную жизнь в более приятную сторону и добавят в ваши отношения ещё больше страсти и огня!.Рельефные вагинальные шарики Alcor.  Рельефные вагинальные шарики Alcor. Модель: lefri-06152. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: винный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -8188,18 +8176,24 @@
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
+      <c r="Y59" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9.5</v>
+      </c>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="n">
-        <v>3.85</v>
+        <v>3.19</v>
       </c>
       <c r="AG59" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
@@ -8233,7 +8227,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -8244,17 +8238,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Вагинальные шарики Beta</t>
+          <t>Малая анальная пробка для ношения Libra</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-25436-1299</t>
+          <t>id-25420-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -8270,12 +8264,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25436/25436_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25436/25436_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25436/25436_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25420/25420_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25420/25420_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25420/25420_3_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Два круглых шарика Beta нежного аквамаринового цвета на гибком силиконовом шнурке - это отличный тренажер для интимных мышц. Также они могут применяться для увеличения уровня возбуждения перед сексом. Наслаждаясь скольжением и удерживая их внутри лона, вы добьётесь как минимум удовольствия, а как максимум  тугих интимных объятий! Ведь в результате занятий фитнесом половых органов любая представительница прекрасной половины человечества станет более уверенной в себе и способной доставлять настоящее удовольствие своему партнеру. Мягкий и нежный силикон приятен к телу и прост в уходе. Вагинальные шарики Beta.  Вагинальные шарики Beta. Модель: lefri-06147. Секс-игрушки. Шарики &gt; Вагинальные не со смещенным центром тяжести. Цвет: нежно-голубой. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Этот великолепный стимулятор Libra страстного темно-красного цвета вознесет Вас на вершину блаженства! Роскошный рельеф, состоящий из 2 шариков разного диаметра обещает максимум впечатлений, а основание в форме якоря служит безопасным ограничителем, что обеспечит комфортное и чувственное проникновение. Нежный бархатистый материал добавит тактильных ощущений и полностью безопасен. Позволь своим эротическим забавы стать насыщенными и яркими!.Малая анальная пробка для ношения Libra S.  Малая анальная пробка для ношения Libra S. Модель: lefri-06153s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -8312,13 +8306,23 @@
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
+      <c r="Y60" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>9</v>
+      </c>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
+      <c r="AD60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>7.7</v>
+      </c>
       <c r="AF60" t="n">
         <v>2.86</v>
       </c>
@@ -8330,14 +8334,24 @@
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
+      <c r="AI60" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>31</v>
+      </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>шарики, фирменный мешочек для хранения</t>
+          <t>анальная пробка, фирменный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -8357,7 +8371,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -8368,17 +8382,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Рельефные вагинальные шарики Alcor</t>
+          <t>Большая анальная пробка Exo</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-25582-1299</t>
+          <t>id-25428-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -8394,12 +8408,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25582/25582_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25582/25582_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25582/25582_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25428/25428_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25428/25428_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25428/25428_3_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вагинальные шарики сдержанного сливового цвета со смещенным центом тяжести Alcor - идеальный вариант для женщин, которые хотят начать тренировку интимных мышц. Изделие выполнено из 100% качественного медицинского и безопасного силикона. Вы сможете не только восстановить эластичность мышц влагалища, но и получить при этом удовольствие от самого процесса. Шарики оснащены силиконовым шнурком для удобства извлечения и контроля во время использования. Постоянные тренировки гарантированно изменят вашу интимную жизнь в более приятную сторону и добавят в ваши отношения ещё больше страсти и огня!.Рельефные вагинальные шарики Alcor.  Рельефные вагинальные шарики Alcor. Модель: lefri-06151. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Exo в глубоком цвете Тихоокеанский синий подойдет как начинающим, так и опытным любителям анальных утех. Острый носик и ограничитель обеспечивают легкий ввод и вывод игрушки. Если ты готов к экспериментам, то волнующее ощущение наполненности не заставит себя ждать! Идеальна для прелюдии к анальному половому акту. Подходят для как женщинам, так и мужчинам. Окрась свою интимную жизнь новыми красками!.Большая анальная пробка Exo.  Большая анальная пробка Exo. Модель: lefri-06154l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -8437,23 +8451,27 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="n">
-        <v>10.45</v>
+        <v>10.78</v>
       </c>
       <c r="Z61" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
+      <c r="AD61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="AF61" t="n">
-        <v>3.19</v>
+        <v>3.96</v>
       </c>
       <c r="AG61" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AH61" t="inlineStr">
         <is>
@@ -8467,7 +8485,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>шарики, фирменный мешочек для хранения</t>
+          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8487,7 +8505,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8498,17 +8516,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Рельефные вагинальные шарики Alcor</t>
+          <t>Средняя анальная пробка Exo</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-25583-1299</t>
+          <t>id-25427-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -8524,12 +8542,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25583/25583_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25583/25583_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25583/25583_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25427/25427_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25427/25427_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25427/25427_3_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вагинальные шарики сдержанного сливового цвета со смещенным центом тяжести Alcor - идеальный вариант для женщин, которые хотят начать тренировку интимных мышц. Изделие выполнено из 100% качественного медицинского и безопасного силикона. Вы сможете не только восстановить эластичность мышц влагалища, но и получить при этом удовольствие от самого процесса. Шарики оснащены силиконовым шнурком для удобства извлечения и контроля во время использования. Постоянные тренировки гарантированно изменят вашу интимную жизнь в более приятную сторону и добавят в ваши отношения ещё больше страсти и огня!.Рельефные вагинальные шарики Alcor.  Рельефные вагинальные шарики Alcor. Модель: lefri-06152. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: винный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Анальная пробка Exo в глубоком цвете Тихоокеанский синий подойдет как начинающим, так и опытным любителям анальных утех. Острый носик и ограничитель обеспечивают легкий ввод и вывод игрушки. Если ты готов к экспериментам, то волнующее ощущение наполненности не заставит себя ждать! Идеальна для прелюдии к анальному половому акту. Подходят для как женщинам, так и мужчинам. Окрась свою интимную жизнь новыми красками!.Средняя анальная пробка Exo.  Средняя анальная пробка Exo. Модель: lefri-06154m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8567,23 +8585,27 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="n">
-        <v>10.45</v>
+        <v>9.57</v>
       </c>
       <c r="Z62" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
+      <c r="AD62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>7.15</v>
+      </c>
       <c r="AF62" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
@@ -8597,7 +8619,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>шарики, фирменный мешочек для хранения</t>
+          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8617,7 +8639,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8628,21 +8650,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Средняя анальная пробка для ношения</t>
+          <t>Шикарные наручники с пушистым мехом</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-25422-1299</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+          <t>id-25366-1299</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>99999</v>
@@ -8654,12 +8684,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25422/25422_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25422/25422_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25422/25422_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25366/25366_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25366/25366_2_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот великолепный стимулятор Libra страстного темно-красного цвета вознесет Вас на вершину блаженства! Роскошный рельеф, состоящий из 2 шариков разного диаметра обещает максимум впечатлений, а основание в форме якоря служит безопасным ограничителем, что обеспечит комфортное и чувственное проникновение. Нежный бархатистый материал добавит тактильных ощущений и полностью безопасен. Позволь своим эротическим забавы стать насыщенными и яркими!.Средняя анальная пробка для ношения Libra L.  Средняя анальная пробка для ношения Libra L. Модель: lefri-06153l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Один щелчок и ты уже в жарком и страстном плену. . Осторожно, вызывает привыкание! Наручники из коллекции Be Mine сделаны из крепкого и качественного металла с гравировкой Le Frivole на каждом изделии - выдержат любые ваши игры, а приятный мягкий мех порадует даже самую нежную кожу. Шикарные наручники с пушистым мехом винного цвета Be Mine.  Шикарные наручники с пушистым мехом винного цвета Be Mine. Модель: lefri-06205. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: винный. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8679,7 +8709,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8696,52 +8726,28 @@
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>14</v>
-      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI63" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>118</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>118</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>118</v>
-      </c>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>анальная пробка, фирменный мешочек для хранения</t>
+          <t>наручники, ключики</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8761,7 +8767,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8772,21 +8778,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Малая анальная пробка для ношения Libra</t>
+          <t>Шикарные наручники с пушистым мехом</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-25420-1299</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+          <t>id-25369-1299</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>99999</v>
@@ -8798,12 +8812,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25420/25420_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25420/25420_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25420/25420_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25369/25369_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25369/25369_2_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот великолепный стимулятор Libra страстного темно-красного цвета вознесет Вас на вершину блаженства! Роскошный рельеф, состоящий из 2 шариков разного диаметра обещает максимум впечатлений, а основание в форме якоря служит безопасным ограничителем, что обеспечит комфортное и чувственное проникновение. Нежный бархатистый материал добавит тактильных ощущений и полностью безопасен. Позволь своим эротическим забавы стать насыщенными и яркими!.Малая анальная пробка для ношения Libra S.  Малая анальная пробка для ношения Libra S. Модель: lefri-06153s. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Один щелчок и ты уже в жарком и страстном плену. . Осторожно, вызывает привыкание! Наручники из коллекции Be Mine сделаны из крепкого и качественного металла с гравировкой Le Frivole на каждом изделии - выдержат любые ваши игры, а приятный мягкий мех порадует даже самую нежную кожу. Шикарные наручники с пушистым мехом цвета кобальт Be Mine.  Шикарные наручники с пушистым мехом цвета кобальт Be Mine. Модель: lefri-06206. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: синий. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8823,7 +8837,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8840,52 +8854,28 @@
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>9</v>
-      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI64" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>31</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>31</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>31</v>
-      </c>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>анальная пробка, фирменный мешочек для хранения</t>
+          <t>наручники, ключики</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8905,7 +8895,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8916,21 +8906,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Большая анальная пробка Exo</t>
+          <t>Шикарные наручники с пушистым мехом</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-25428-1299</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+          <t>id-25368-1299</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>99999</v>
@@ -8942,12 +8940,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25428/25428_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25428/25428_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25428/25428_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25368/25368_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25368/25368_2_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Exo в глубоком цвете Тихоокеанский синий подойдет как начинающим, так и опытным любителям анальных утех. Острый носик и ограничитель обеспечивают легкий ввод и вывод игрушки. Если ты готов к экспериментам, то волнующее ощущение наполненности не заставит себя ждать! Идеальна для прелюдии к анальному половому акту. Подходят для как женщинам, так и мужчинам. Окрась свою интимную жизнь новыми красками!.Большая анальная пробка Exo.  Большая анальная пробка Exo. Модель: lefri-06154l. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Один щелчок и ты уже в жарком и страстном плену. . Осторожно, вызывает привыкание! Наручники из коллекции Be Mine сделаны из крепкого и качественного металла с гравировкой Le Frivole на каждом изделии - выдержат любые ваши игры, а приятный мягкий мех порадует даже самую нежную кожу. Шикарные наручники с пушистым мехом синего цвета Be Mine.  Шикарные наручники с пушистым мехом синего цвета Be Mine. Модель: lefri-06207. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: темно-синий. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8967,7 +8965,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8984,29 +8982,15 @@
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>9.800000000000001</v>
-      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9019,7 +9003,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
+          <t>наручники, ключики</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -9039,7 +9023,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -9050,21 +9034,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Средняя анальная пробка Exo</t>
+          <t>Комплект пестисов (сердечки + кружочки)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-25427-1299</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+          <t>id-28272-1299</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>99999</v>
@@ -9076,17 +9068,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25427/25427_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25427/25427_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25427/25427_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_4_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная пробка Exo в глубоком цвете Тихоокеанский синий подойдет как начинающим, так и опытным любителям анальных утех. Острый носик и ограничитель обеспечивают легкий ввод и вывод игрушки. Если ты готов к экспериментам, то волнующее ощущение наполненности не заставит себя ждать! Идеальна для прелюдии к анальному половому акту. Подходят для как женщинам, так и мужчинам. Окрась свою интимную жизнь новыми красками!.Средняя анальная пробка Exo.  Средняя анальная пробка Exo. Модель: lefri-06154m. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: темно-синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Комплект из двух пар кружевных пестисов, которые отлично подойдут к кружевному белью, трусикам с поясом для чулок и чулками, образу горничной или игривой кошечки  большая вариативность! Этот комплект пестисов поможет создать романтичный, но в то же время раскрепощенный образ, подарит озорное настроение!Подходят для одноразового использования. На внутренней стороне в центре есть неклейкая часть для защиты сосков  минимизирует вероятность раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Комплект пестисов (сердечки + кружочки).  Комплект пестисов (сердечки + кружочки). Модель: lefri-06652. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -9101,7 +9093,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>полиэстер</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -9118,29 +9110,15 @@
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>8.699999999999999</v>
-      </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9153,7 +9131,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t xml:space="preserve">анальная пробка, фирменный мешочек для хранения </t>
+          <t>2 комплекта пестисов</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -9173,7 +9151,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -9189,12 +9167,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Шикарные наручники с пушистым мехом</t>
+          <t>Черные кожаные сердечки со змеиным</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-25366-1299</t>
+          <t>id-28287-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -9218,17 +9196,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25366/25366_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25366/25366_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28287/28287_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28287/28287_2_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Один щелчок и ты уже в жарком и страстном плену. . Осторожно, вызывает привыкание! Наручники из коллекции Be Mine сделаны из крепкого и качественного металла с гравировкой Le Frivole на каждом изделии - выдержат любые ваши игры, а приятный мягкий мех порадует даже самую нежную кожу. Шикарные наручники с пушистым мехом винного цвета Be Mine.  Шикарные наручники с пушистым мехом винного цвета Be Mine. Модель: lefri-06205. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: винный. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Игривые пестисы в форме сердечек, выполненные из эко-кожи со змеиным тиснением. Станут главным акцентом в притягательном образе для вечеринки или романтического вечера с любимым человеком. Придадут смелости и раскованности своей обладательнице  можно полностью отдаться процессу. Черный отлично сочетается с красным и золотым, добавьте элементы этих цветов и соберите свой уникальный и соблазнительный образ!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные кожаные сердечки со змеиным тиснением.  Черные кожаные сердечки со змеиным тиснением. Модель: lefri-06653. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -9243,7 +9221,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>металл, искусственный мех</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -9281,7 +9259,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>наручники, ключики</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -9301,7 +9279,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -9317,22 +9295,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Шикарные наручники с пушистым мехом</t>
+          <t>Черные кожаные пестисы со змеиным</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-25369-1299</t>
+          <t>id-28313-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -9346,17 +9324,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25369/25369_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25369/25369_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28313/28313_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28313/28313_2_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Один щелчок и ты уже в жарком и страстном плену. . Осторожно, вызывает привыкание! Наручники из коллекции Be Mine сделаны из крепкого и качественного металла с гравировкой Le Frivole на каждом изделии - выдержат любые ваши игры, а приятный мягкий мех порадует даже самую нежную кожу. Шикарные наручники с пушистым мехом цвета кобальт Be Mine.  Шикарные наручники с пушистым мехом цвета кобальт Be Mine. Модель: lefri-06206. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: синий. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Лаконичные пэстисы из эко-кожи со змеиным тиснением, которые подойдут почти для любого образа. Менять костюмы и эротические комплекты можно хоть каждый день, но этот элемент станет изюминкой в каждом. Будут особенно гармонично сочетаться с черными, красными и золотыми предметами гардероба. Не стесняйся, экспериментируй!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пэстисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пэстисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные кожаные пестисы со змеиным тиснением.  Черные кожаные пестисы со змеиным тиснением. Модель: lefri-06654. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -9371,7 +9349,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>металл, искусственный мех</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -9409,7 +9387,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>наручники, ключики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -9429,7 +9407,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -9445,22 +9423,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Шикарные наручники с пушистым мехом</t>
+          <t>Черные кожаные пестисы</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-25368-1299</t>
+          <t>id-28281-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -9474,17 +9452,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25368/25368_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25368/25368_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28281/28281_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28281/28281_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28281/28281_3_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Один щелчок и ты уже в жарком и страстном плену. . Осторожно, вызывает привыкание! Наручники из коллекции Be Mine сделаны из крепкого и качественного металла с гравировкой Le Frivole на каждом изделии - выдержат любые ваши игры, а приятный мягкий мех порадует даже самую нежную кожу. Шикарные наручники с пушистым мехом синего цвета Be Mine.  Шикарные наручники с пушистым мехом синего цвета Be Mine. Модель: lefri-06207. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: темно-синий. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Черные пестисы из гладкой эко-кожи станут прекрасным дополнением к строгому образу. Эффектно будут смотреться с бельем в BDSM-стилистике и создадут подходящее настроение. Будут особенно гармонично сочетаться с кожаными аксессуарами, а также с блейзером на голое тело. Покорить мужчину? Что может быть проще!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные кожаные пестисы.  Черные кожаные пестисы. Модель: lefri-06655. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -9499,7 +9477,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>металл, искусственный мех</t>
+          <t>эко кожа</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9537,7 +9515,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>наручники, ключики</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -9573,22 +9551,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Комплект пестисов (сердечки + кружочки)</t>
+          <t>Сатиновые пестисы-котики</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-28272-1299</t>
+          <t>id-28276-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XXXL</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>56-58</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -9602,12 +9580,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28272/28272_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28276/28276_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28276/28276_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28276/28276_3_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект из двух пар кружевных пестисов, которые отлично подойдут к кружевному белью, трусикам с поясом для чулок и чулками, образу горничной или игривой кошечки  большая вариативность! Этот комплект пестисов поможет создать романтичный, но в то же время раскрепощенный образ, подарит озорное настроение!Подходят для одноразового использования. На внутренней стороне в центре есть неклейкая часть для защиты сосков  минимизирует вероятность раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Комплект пестисов (сердечки + кружочки).  Комплект пестисов (сердечки + кружочки). Модель: lefri-06652. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Гладкие сатиновые пестисы для образа озорной кошечки  аккуратные и приятные на ощупь. Отлично будут смотреться как сами по себе, так и с чокером, поясом для чулок, чулками и туфлями. Лаконичный дизайн позволяет легко сочетать аксессуар с различными элементами гардероба. С этими пестисами эротический настрой не заставит себя долго ждать!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Сатиновые пестисы-котики.  Сатиновые пестисы-котики. Модель: lefri-06657. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9665,7 +9643,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>2 комплекта пестисов</t>
+          <t>2 пестиса</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9701,22 +9679,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Черные кожаные сердечки со змеиным</t>
+          <t>Черные кожаные пестисы с золотыми</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-28287-1299</t>
+          <t>id-28275-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -9730,12 +9708,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28287/28287_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28287/28287_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28275/28275_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28275/28275_2_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривые пестисы в форме сердечек, выполненные из эко-кожи со змеиным тиснением. Станут главным акцентом в притягательном образе для вечеринки или романтического вечера с любимым человеком. Придадут смелости и раскованности своей обладательнице  можно полностью отдаться процессу. Черный отлично сочетается с красным и золотым, добавьте элементы этих цветов и соберите свой уникальный и соблазнительный образ!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные кожаные сердечки со змеиным тиснением.  Черные кожаные сердечки со змеиным тиснением. Модель: lefri-06653. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Пестисы из гладкой эко-кожи с золотистыми металлическими кисточками, классика бурлеска. Станут ярким дополнением ко многим костюмам  как для вечеринки, так и для романтического вечера. Такой аксессуар точно привлечет внимание, так как он выглядит дорого и эстетично!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные кожаные пестисы с золотыми кисточками.  Черные кожаные пестисы с золотыми кисточками. Модель: lefri-06658. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный с золотым. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9745,17 +9723,17 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>эко кожа, металл</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9829,12 +9807,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Черные кожаные пестисы</t>
+          <t>Золотые металлические пестисы</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-28281-1299</t>
+          <t>id-28282-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -9858,12 +9836,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28281/28281_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28281/28281_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28281/28281_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28282/28282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28282/28282_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28282/28282_2_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черные пестисы из гладкой эко-кожи станут прекрасным дополнением к строгому образу. Эффектно будут смотреться с бельем в BDSM-стилистике и создадут подходящее настроение. Будут особенно гармонично сочетаться с кожаными аксессуарами, а также с блейзером на голое тело. Покорить мужчину? Что может быть проще!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные кожаные пестисы.  Черные кожаные пестисы. Модель: lefri-06655. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: эко кожа. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Металлические круглые пестисы с гладкой золотистой поверхностью  прочные и долговечные. Позволят своей обладательнице легко создать утонченный и дорогой образ в классическом стиле. Будут идеально сочетаться с аксессуарами с золотыми цепочками и кружевом любого цвета. Такой костюм можно надеть и в спальню, и на вечеринку  множество вариантов для использования!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Золотые металлические пестисы.  Золотые металлические пестисы. Модель: lefri-06659. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: золотистый. Материал: металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9883,7 +9861,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>эко кожа</t>
+          <t>металл</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9957,22 +9935,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Сатиновые пестисы-котики</t>
+          <t>Комплект блестящих пестисов (сердечки)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-28276-1299</t>
+          <t>id-28273-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>XXXL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>56-58</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -9986,12 +9964,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28276/28276_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28276/28276_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28276/28276_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_4_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гладкие сатиновые пестисы для образа озорной кошечки  аккуратные и приятные на ощупь. Отлично будут смотреться как сами по себе, так и с чокером, поясом для чулок, чулками и туфлями. Лаконичный дизайн позволяет легко сочетать аксессуар с различными элементами гардероба. С этими пестисами эротический настрой не заставит себя долго ждать!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Сатиновые пестисы-котики.  Сатиновые пестисы-котики. Модель: lefri-06657. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Комплект из двух пар сияющих пестисов черного и красного цвета  подойдут под разное настроение и ситуацию. Могут быть как единственным блестящим акцентом, так и дополнить искрящийся образ  в любом случае создадут вау эффект. Тренд на глиттер не собирается уходить, и этот аксессуар вписывается как нельзя лучше  будь модной, играй, соблазняй!Подходят для одноразового использования. На внутренней стороне в центре есть неклейкая часть для защиты сосков  минимизирует вероятность раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Комплект блестящих пестисов (сердечки).  Комплект блестящих пестисов (сердечки). Модель: lefri-06661. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный, черный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -10049,7 +10027,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>2 пестиса</t>
+          <t>2 комплекта пестисов</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -10085,22 +10063,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Черные кожаные пестисы с золотыми</t>
+          <t>Пестисы полицейские звезды</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-28275-1299</t>
+          <t>id-28285-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XXXL</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>56-58</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -10114,12 +10092,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28275/28275_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28275/28275_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28285/28285_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28285/28285_2_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пестисы из гладкой эко-кожи с золотистыми металлическими кисточками, классика бурлеска. Станут ярким дополнением ко многим костюмам  как для вечеринки, так и для романтического вечера. Такой аксессуар точно привлечет внимание, так как он выглядит дорого и эстетично!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные кожаные пестисы с золотыми кисточками.  Черные кожаные пестисы с золотыми кисточками. Модель: lefri-06658. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный с золотым. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Пестисы-звездочки из эко-кожи с металлическими элементами и отверстием в центре. Уникальная модель, которая дает доступ к соскам и увеличивает вариативность взаимодействия с партнером. Если вы решите воплотить образ строгого шерифа, то такой аксессуар придется как нельзя кстати. К данной модели так же отлично подойдут изделия из кожи по типу портупеи.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Пестисы полицейские звезды.  Пестисы полицейские звезды. Модель: lefri-06662. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -10129,12 +10107,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -10213,22 +10191,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Золотые металлические пестисы</t>
+          <t>Комплект пестисов</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-28282-1299</t>
+          <t>id-28288-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>4XL</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>58-60</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -10242,12 +10220,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28282/28282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28282/28282_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28282/28282_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_4_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Металлические круглые пестисы с гладкой золотистой поверхностью  прочные и долговечные. Позволят своей обладательнице легко создать утонченный и дорогой образ в классическом стиле. Будут идеально сочетаться с аксессуарами с золотыми цепочками и кружевом любого цвета. Такой костюм можно надеть и в спальню, и на вечеринку  множество вариантов для использования!Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Золотые металлические пестисы.  Золотые металлические пестисы. Модель: lefri-06659. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: золотистый. Материал: металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Две пары сатиновых пестисов в форме крестов черного и красного цвета  подойдут под разные ситуации и настроение. Одна из самых популярных форм пестисов завоевала всеобщую любовь не просто так. Это прекрасное дополнение ко многим образам для разных ситуаций. Даже с лаконичным прозрачным бельем или тонкой футболкой они будут смотреться соблазнительно.Подходят для одноразового использования, ширина  8 см. На внутренней стороне в центре есть неклейкая часть для защиты сосков от раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Комплект пестисов.  Комплект пестисов. Модель: lefri-06663. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный, красный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -10267,7 +10245,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>металл</t>
+          <t>полиэстер</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -10305,7 +10283,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>два пестиса</t>
+          <t>2 комплекта пестисов</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -10341,12 +10319,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Комплект блестящих пестисов (сердечки)</t>
+          <t>Пестисы школьницы</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-28273-1299</t>
+          <t>id-28286-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -10370,12 +10348,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28273/28273_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28286/28286_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28286/28286_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28286/28286_3_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект из двух пар сияющих пестисов черного и красного цвета  подойдут под разное настроение и ситуацию. Могут быть как единственным блестящим акцентом, так и дополнить искрящийся образ  в любом случае создадут вау эффект. Тренд на глиттер не собирается уходить, и этот аксессуар вписывается как нельзя лучше  будь модной, играй, соблазняй!Подходят для одноразового использования. На внутренней стороне в центре есть неклейкая часть для защиты сосков  минимизирует вероятность раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Комплект блестящих пестисов (сердечки).  Комплект блестящих пестисов (сердечки). Модель: lefri-06661. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный, черный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Сатиновые пестисы в форме сердечек. Принт на тему строгой формы задает тон возможному образу озорной школьницы, которую оставили на дополнительное занятие для оттачивания знаний и навыков  отлично подходят ролевых игр. Пестисы будут классно сочетаться с короткой юбкой, белыми или черными чулками и бантиками в волосах.Подходят для одноразового использования. На внутренней стороне в центре есть неклейкая часть для защиты сосков от раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Пестисы школьницы.  Пестисы школьницы. Модель: lefri-06667. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный, черный, синий, зеленый. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -10433,7 +10411,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>2 комплекта пестисов</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -10469,12 +10447,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Пестисы полицейские звезды</t>
+          <t>Черные лаковые пестисы-кресты</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-28285-1299</t>
+          <t>id-28284-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -10498,12 +10476,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28285/28285_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28285/28285_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28284/28284_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28284/28284_2_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пестисы-звездочки из эко-кожи с металлическими элементами и отверстием в центре. Уникальная модель, которая дает доступ к соскам и увеличивает вариативность взаимодействия с партнером. Если вы решите воплотить образ строгого шерифа, то такой аксессуар придется как нельзя кстати. К данной модели так же отлично подойдут изделия из кожи по типу портупеи.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Пестисы полицейские звезды.  Пестисы полицейские звезды. Модель: lefri-06662. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: эко кожа, металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Классические крестообразные черные пестисы из винила  всегда уместны. Если хотите создать эротический образ медсестры для вечеринки или романтического свидания, без них просто не обойтись. Попробуйте разные сочетания, это может быть и образ роковой соблазнительницы, всей в красном белье и обуви.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные лаковые пестисы-кресты.  Черные лаковые пестисы-кресты. Модель: lefri-06668. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: полиуретан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -10523,7 +10501,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>эко кожа, металл</t>
+          <t>полиуретан</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10597,22 +10575,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Комплект пестисов</t>
+          <t>Красные лаковые пестисы-кресты</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-28288-1299</t>
+          <t>id-28274-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XXXL</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>58-60</t>
+          <t>56-58</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -10626,12 +10604,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28288/28288_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28274/28274_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28274/28274_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28274/28274_3_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Две пары сатиновых пестисов в форме крестов черного и красного цвета  подойдут под разные ситуации и настроение. Одна из самых популярных форм пестисов завоевала всеобщую любовь не просто так. Это прекрасное дополнение ко многим образам для разных ситуаций. Даже с лаконичным прозрачным бельем или тонкой футболкой они будут смотреться соблазнительно.Подходят для одноразового использования, ширина  8 см. На внутренней стороне в центре есть неклейкая часть для защиты сосков от раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Комплект пестисов.  Комплект пестисов. Модель: lefri-06663. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный, красный. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Классические крестообразные красные пестисы из винила  всегда уместны. Если хотите создать эротический образ медсестры для вечеринки или романтического свидания, без них просто не обойтись. Попробуйте разные сочетания, это может быть и образ роковой соблазнительницы, всей в красном белье и обуви.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Красные лаковые пестисы-кресты.  Красные лаковые пестисы-кресты. Модель: lefri-06669. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный. Материал: полиуретан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10651,7 +10629,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>полиэстер</t>
+          <t>полиуретан</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10689,7 +10667,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>2 комплекта пестисов</t>
+          <t>два пестиса</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10725,12 +10703,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Пестисы школьницы</t>
+          <t>Черные пестисы с золотой цепочкой</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-28286-1299</t>
+          <t>id-28283-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -10754,12 +10732,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28286/28286_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28286/28286_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28286/28286_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28283/28283_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28283/28283_2_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сатиновые пестисы в форме сердечек. Принт на тему строгой формы задает тон возможному образу озорной школьницы, которую оставили на дополнительное занятие для оттачивания знаний и навыков  отлично подходят ролевых игр. Пестисы будут классно сочетаться с короткой юбкой, белыми или черными чулками и бантиками в волосах.Подходят для одноразового использования. На внутренней стороне в центре есть неклейкая часть для защиты сосков от раздражения. Наклеивать на кожу, очищенную от косметических средств. Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Пестисы школьницы.  Пестисы школьницы. Модель: lefri-06667. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный, черный, синий, зеленый. Материал: полиэстер. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Черные сатиновые пестисы, соединенные тремя золотыми цепочками выполненных каскадом  лаконичный и люксовый образ благодаря всего одному элементу! С ними можно создать очень оригинальный образ, подойдут ко многим костюмам и будут смотреться очень дорого, достаточно добавить к ансамблю кружевные трусики, чулки и туфли.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные пестисы с золотой цепочкой.  Черные пестисы с золотой цепочкой. Модель: lefri-06671. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный с золотым. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10779,7 +10757,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>полиэстер</t>
+          <t>полиэстер, металл</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10837,7 +10815,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -10853,22 +10831,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Черные лаковые пестисы-кресты</t>
+          <t>Обольстительные трусики с доступом и</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-28284-1299</t>
+          <t>id-27949-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>XXXL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>56-58</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -10882,12 +10860,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28284/28284_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28284/28284_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27949/27949_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27949/27949_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27949/27949_3_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические крестообразные черные пестисы из винила  всегда уместны. Если хотите создать эротический образ медсестры для вечеринки или романтического свидания, без них просто не обойтись. Попробуйте разные сочетания, это может быть и образ роковой соблазнительницы, всей в красном белье и обуви.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные лаковые пестисы-кресты.  Черные лаковые пестисы-кресты. Модель: lefri-06668. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: полиуретан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Обольстительные трусики с доступом и держателями для чулок - это то о чём мечтает каждая девушка, ведь не что не делает нас такими женственными, как этот изысканный предмет одежды. Универсальная конструкция этих трусиков позволяет устроить вашему партнёру тысячу и одну ночь впечатлений, не повторившись не разу! Страсть, романтика, ассоциации с эпохой будуаров и кабаре, всё это то, что привнесут эти трусики в ваши отношения. Так зачем же отказываться от всех этих впечатлений!!.Обольстительные трусики с доступом и держателями для чулок XXLXXXL.  Обольстительные трусики с доступом и держателями для чулок XXLXXXL. Модель: lefri-06684xxlxxxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10907,7 +10885,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>полиуретан</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10945,7 +10923,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>два пестиса</t>
+          <t>трусики-пояс</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10965,7 +10943,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10981,22 +10959,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Красные лаковые пестисы-кресты</t>
+          <t>Завораживающие трусики с доступом и</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-28274-1299</t>
+          <t>id-27006-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>XXXL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>56-58</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -11010,12 +10988,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28274/28274_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28274/28274_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28274/28274_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27006/27006_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27006/27006_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27006/27006_3_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические крестообразные красные пестисы из винила  всегда уместны. Если хотите создать эротический образ медсестры для вечеринки или романтического свидания, без них просто не обойтись. Попробуйте разные сочетания, это может быть и образ роковой соблазнительницы, всей в красном белье и обуви.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Красные лаковые пестисы-кресты.  Красные лаковые пестисы-кресты. Модель: lefri-06669. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный. Материал: полиуретан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Трусики с высокой посадкой на талии и оригинальным дизайном скроют все ваши недостатки, преподнеся достоинства в лучшем виде. Фасон танго визуально стройнит и подчёркивает талию, а вырезы придают пикантность образу. Гипоаллергенная сетка и качественная фурнитура сохраняет отличный внешний вид и после многократной стирки. Завораживающие трусики с доступом и каплевидными вырезами  LXL.  Завораживающие трусики с доступом и каплевидными вырезами  LXL. Модель: lefri-06687lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -11035,7 +11013,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>полиуретан</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -11073,7 +11051,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>два пестиса</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -11093,7 +11071,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -11109,22 +11087,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Черные пестисы с золотой цепочкой</t>
+          <t>Завораживающие трусики с доступом и</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-28283-1299</t>
+          <t>id-27005-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -11138,12 +11116,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28283/28283_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28283/28283_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27005/27005_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27005/27005_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27005/27005_3_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черные сатиновые пестисы, соединенные тремя золотыми цепочками выполненных каскадом  лаконичный и люксовый образ благодаря всего одному элементу! С ними можно создать очень оригинальный образ, подойдут ко многим костюмам и будут смотреться очень дорого, достаточно добавить к ансамблю кружевные трусики, чулки и туфли.Подходят для многоразового использования так как на внутреннюю сторону нанесен слой качественного и безопасного силиконового клея.Использование, хранение, меры предосторожности:Наклеивать на кожу, очищенную от косметических средств. После использования аккуратно снять, промыть внутреннюю сторону пестисов теплой водой, дать высохнуть натуральным образом в тени, в не запыленном месте, клейкость восстановится и пестисы можно убирать на хранение или использовать повторно.Для хранения необходимо закрыть весь клейкий слой чистой пленкой, положить в место с минимальным количеством пыли и солнечного света.При сильном загрязнении можно использовать слабый раствор мыльной воды или раствор нейтрального геля для душа, нанести его на клеевой слой на несколько минут и смыть достаточным количеством воды. Не тереть клеевой слой - это может его повредить. Нельзя использовать иные моющие средства, а также средства, содержащие спирт, ацетон и другие растворители.Не рекомендуется использовать при повреждениях кожи груди, аллергии на силикон и нарушениях пигментации. Черные пестисы с золотой цепочкой.  Черные пестисы с золотой цепочкой. Модель: lefri-06671. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный с золотым. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Трусики с высокой посадкой на талии и оригинальным дизайном скроют все ваши недостатки, преподнеся достоинства в лучшем виде. Фасон танго визуально стройнит и подчёркивает талию, а вырезы придают пикантность образу. Гипоаллергенная сетка и качественная фурнитура сохраняет отличный внешний вид и после многократной стирки. Завораживающие трусики с доступом и каплевидными вырезами SM.  Завораживающие трусики с доступом и каплевидными вырезами SM. Модель: lefri-06687smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -11163,7 +11141,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>полиэстер, металл</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -11201,7 +11179,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>два пестиса</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -11221,7 +11199,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -11237,22 +11215,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Обольстительные трусики с доступом и</t>
+          <t>Костюм элегантной горничной LXL</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-27949-1299</t>
+          <t>id-28279-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -11266,12 +11244,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27949/27949_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27949/27949_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27949/27949_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_4_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обольстительные трусики с доступом и держателями для чулок - это то о чём мечтает каждая девушка, ведь не что не делает нас такими женственными, как этот изысканный предмет одежды. Универсальная конструкция этих трусиков позволяет устроить вашему партнёру тысячу и одну ночь впечатлений, не повторившись не разу! Страсть, романтика, ассоциации с эпохой будуаров и кабаре, всё это то, что привнесут эти трусики в ваши отношения. Так зачем же отказываться от всех этих впечатлений!!.Обольстительные трусики с доступом и держателями для чулок XXLXXXL.  Обольстительные трусики с доступом и держателями для чулок XXLXXXL. Модель: lefri-06684xxlxxxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной LXL (Premium quality).  Костюм элегантной горничной LXL (Premium quality). Модель: lefri-06710lxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -11291,7 +11269,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -11329,7 +11307,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>трусики-пояс</t>
+          <t>платье, передник, чокер на шею, чулки</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -11349,7 +11327,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -11365,12 +11343,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Завораживающие трусики с доступом и</t>
+          <t>Костюм элегантной горничной XLXXL</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-27006-1299</t>
+          <t>id-28280-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -11380,7 +11358,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -11394,12 +11372,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27006/27006_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27006/27006_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27006/27006_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_4_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики с высокой посадкой на талии и оригинальным дизайном скроют все ваши недостатки, преподнеся достоинства в лучшем виде. Фасон танго визуально стройнит и подчёркивает талию, а вырезы придают пикантность образу. Гипоаллергенная сетка и качественная фурнитура сохраняет отличный внешний вид и после многократной стирки. Завораживающие трусики с доступом и каплевидными вырезами  LXL.  Завораживающие трусики с доступом и каплевидными вырезами  LXL. Модель: lefri-06687lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной XLXXL (Premium quality).  Костюм элегантной горничной XLXXL (Premium quality). Модель: lefri-06710lxlxxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -11419,7 +11397,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -11457,7 +11435,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье, передник, чокер на шею, чулки</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11477,7 +11455,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -11493,12 +11471,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Завораживающие трусики с доступом и</t>
+          <t>Костюм элегантной горничной SM Premium</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-27005-1299</t>
+          <t>id-28277-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -11522,12 +11500,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27005/27005_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27005/27005_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27005/27005_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_4_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Трусики с высокой посадкой на талии и оригинальным дизайном скроют все ваши недостатки, преподнеся достоинства в лучшем виде. Фасон танго визуально стройнит и подчёркивает талию, а вырезы придают пикантность образу. Гипоаллергенная сетка и качественная фурнитура сохраняет отличный внешний вид и после многократной стирки. Завораживающие трусики с доступом и каплевидными вырезами SM.  Завораживающие трусики с доступом и каплевидными вырезами SM. Модель: lefri-06687smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной SM (Premium quality).  Костюм элегантной горничной SM (Premium quality). Модель: lefri-06710smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -11547,7 +11525,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -11585,7 +11563,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье, передник, чокер на шею, чулки</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11605,7 +11583,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -11621,12 +11599,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Костюм элегантной горничной LXL</t>
+          <t>Костюм игривой медсестры LXL Premium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-28279-1299</t>
+          <t>id-28271-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -11650,12 +11628,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28279/28279_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_6_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной LXL (Premium quality).  Костюм элегантной горничной LXL (Premium quality). Модель: lefri-06710lxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вам нужна скорая сексуальная помощь? Есть верный способ!! Ролевой костюм медсестры, состоящий из игривых трусиков и топа, никого не оставят равнодушным и помощь, не заставит себя ждать. Роскошная рюша на попке, придаст любой фигуре аппетитные формы, а образу игривость. Основной материал - сетка, приоткрывает завесу тайны, сохраняя поле для воображения. Костюм игривой медсестры LXL (Premium quality).  Костюм игривой медсестры LXL (Premium quality). Модель: lefri-06717lxlw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11675,7 +11653,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -11713,7 +11691,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>платье, передник, чокер на шею, чулки</t>
+          <t>лиф, трусики с рюшами</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11733,7 +11711,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -11749,22 +11727,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Костюм элегантной горничной XLXXL</t>
+          <t>Костюм игривой медсестры ML Premium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-28280-1299</t>
+          <t>id-28270-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -11778,12 +11756,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28280/28280_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_6_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной XLXXL (Premium quality).  Костюм элегантной горничной XLXXL (Premium quality). Модель: lefri-06710lxlxxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вам нужна скорая сексуальная помощь? Есть верный способ!! Ролевой костюм медсестры, состоящий из игривых трусиков и топа, никого не оставят равнодушным и помощь, не заставит себя ждать. Роскошная рюша на попке, придаст любой фигуре аппетитные формы, а образу игривость. Основной материал - сетка, приоткрывает завесу тайны, сохраняя поле для воображения. Костюм игривой медсестры ML (Premium quality).  Костюм игривой медсестры ML (Premium quality). Модель: lefri-06717mlw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11803,7 +11781,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -11841,7 +11819,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>платье, передник, чокер на шею, чулки</t>
+          <t>лиф, трусики с рюшами</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11861,7 +11839,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -11870,29 +11848,25 @@
           <t>LE FRIVOLE</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>для женщин</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Костюм элегантной горничной ML Premium</t>
+          <t>Костюм игривой медсестры SM Premium</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-28278-1299</t>
+          <t>id-28269-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -11906,12 +11880,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28278/28278_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_6_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной ML (Premium quality).  Костюм элегантной горничной ML (Premium quality). Модель: lefri-06710mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вам нужна скорая сексуальная помощь? Есть верный способ!! Ролевой костюм медсестры, состоящий из игривых трусиков и топа, никого не оставят равнодушным и помощь, не заставит себя ждать. Роскошная рюша на попке, придаст любой фигуре аппетитные формы, а образу игривость. Основной материал - сетка, приоткрывает завесу тайны, сохраняя поле для воображения. Костюм игривой медсестры SM (Premium quality).  Костюм игривой медсестры SM (Premium quality). Модель: lefri-06717smw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11931,7 +11905,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11969,7 +11943,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>платье, передник, чокер на шею, чулки</t>
+          <t>лиф, трусики с рюшами</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -11989,40 +11963,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Костюм элегантной горничной SM Premium</t>
+          <t>Перезаряжаемый универсальный вибратор</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-28277-1299</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-26566-1299</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>99999</v>
@@ -12034,17 +12000,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28277/28277_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_6_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Когда вам нужна уборка срочно вызывайте горничную. Костюм элегантно горничной создаст утончённый образ без пошлости, подчеркнув все достоинства и скрыв недостатки. Чёрный трикотаж хорошо облегает фигуру, создавая иллюзию песочных часов. Игривые элементы рюши и чокера создадут сказочную ауру образа. Открытая спина эротического костюма горничной подчеркнёт вашу индивидуальность. Благодаря чокеру, чулкам и переднику в комплекте у вас появляется ещё больше идей для игр.Перьевая палочка в комплект не входит, но ее можно приобрести отдельно в нашем магазине (id-7245-0000). Костюм элегантной горничной SM (Premium quality).  Костюм элегантной горничной SM (Premium quality). Модель: lefri-06710smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Материал: 65% полиэстер, 30% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибростимулятор сделает вашу сексуальную жизнь ярче и интереснее. Благодаря 7 режимам вибрации вы легко найдете подходящий именно вам и получите незабываемое удовольствие. Удобное управление одной кнопкой позволяет полностью погрузиться в игру. Головка игрушки комбинирована с качественным ABS пластиком, что позволяет лучше передавать вибрацию, а узкий силиконовый конец девайса гарантирует приятные тактильные ощущения. Перезаряжаемая технология при помощи USB (в комплекте) избавит вас от постоянной покупки батареек. Безусловно, вибратор Cosmy может удовлетворить запросы даже самых искушенных любителей секс-игрушек!.Перезаряжаемый универсальный вибратор L'EROINA Cosmy (7 режимов).  Перезаряжаемый универсальный вибратор L'EROINA Cosmy (7 режимов). Модель: leroina-561019. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: фиолетовый, черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -12059,7 +12025,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>65% полиэстер, 30% нейлон, 5% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -12076,15 +12042,25 @@
       </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="Y89" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr"/>
+      <c r="AF89" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AH89" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12097,7 +12073,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>платье, передник, чокер на шею, чулки</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -12117,13 +12093,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -12133,24 +12109,16 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Костюм игривой медсестры LXL Premium</t>
+          <t>Перезаряжаемый вибратор с клиторальным</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-28271-1299</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-26271-1299</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>99999</v>
@@ -12162,12 +12130,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28271/28271_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_7_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нужна скорая сексуальная помощь? Есть верный способ!! Ролевой костюм медсестры, состоящий из игривых трусиков и топа, никого не оставят равнодушным и помощь, не заставит себя ждать. Роскошная рюша на попке, придаст любой фигуре аппетитные формы, а образу игривость. Основной материал - сетка, приоткрывает завесу тайны, сохраняя поле для воображения. Костюм игривой медсестры LXL (Premium quality).  Костюм игривой медсестры LXL (Premium quality). Модель: lefri-06717lxlw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор SANGRA создан для того чтобы удовлетворить все ваши желания и воплотить в жизнь самые смелые фантазии. Мягкая середина девайса позволяет ему слегка гнутся, так что вы без труда найдете идеальный угол для стимуляции, а нежные ворсинки на клиторальном отростке удвоят удовольствие. Для удобства использования кнопки устройства подсвечиваются во время включения и в процессе работы. К вашим услугам десять режимов вибрации и два мощных мотора. Изготовлен из легкого в эксплуатации, нетоксичного, гипоаллергенного силикона. Вибратор SANGRA от LEROINA идеально подходит для начинающих и опытных пользователей!.Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Sangra (10 режимов).  Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Sangra (10 режимов). Модель: leroina-561025. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: винный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -12187,7 +12155,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -12204,15 +12172,29 @@
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
+      <c r="Y90" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>20.3</v>
+      </c>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
+      <c r="AD90" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AH90" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12225,7 +12207,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>лиф, трусики с рюшами</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -12245,13 +12227,13 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -12261,24 +12243,16 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Костюм игривой медсестры ML Premium</t>
+          <t>Перезаряжаемый вибратор с клиторальным</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-28270-1299</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-26282-1299</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>99999</v>
@@ -12290,12 +12264,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28270/28270_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_3_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нужна скорая сексуальная помощь? Есть верный способ!! Ролевой костюм медсестры, состоящий из игривых трусиков и топа, никого не оставят равнодушным и помощь, не заставит себя ждать. Роскошная рюша на попке, придаст любой фигуре аппетитные формы, а образу игривость. Основной материал - сетка, приоткрывает завесу тайны, сохраняя поле для воображения. Костюм игривой медсестры ML (Premium quality).  Костюм игривой медсестры ML (Premium quality). Модель: lefri-06717mlw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Вибратор MION создан для того чтобы удовлетворить все ваши желания и воплотить в жизнь самые смелые фантазии. Мягкая середина девайса позволяет ему слегка гнуться, так что вы без труда найдете идеальный угол для стимуляции, а нежные лепестки на клиторальном отростке удвоят удовольствие. Для удобства использования кнопки устройства подсвечиваются во время включения и в процессе работы. К вашим услугам десять режимов вибрации и два мощных мотора. Изготовлен из легкого в эксплуатации, нетоксичного, гипоаллергенного силикона. Вибратор MION от LEROINA идеально подходит для начинающих и опытных пользователей!.Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Mion (10 режимов).  Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Mion (10 режимов). Модель: leroina-561026. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: винный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -12315,7 +12289,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -12332,15 +12306,29 @@
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
+      <c r="Y91" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>22.3</v>
+      </c>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
+      <c r="AD91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AH91" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12353,7 +12341,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>лиф, трусики с рюшами</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -12373,36 +12361,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>Lasciva</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>для женщин</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Костюм игривой медсестры SM Premium</t>
+          <t>Набор для внутренней и внешней</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-28269-1299</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-23115-1299</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>99999</v>
@@ -12414,17 +12398,17 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28269/28269_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_8_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нужна скорая сексуальная помощь? Есть верный способ!! Ролевой костюм медсестры, состоящий из игривых трусиков и топа, никого не оставят равнодушным и помощь, не заставит себя ждать. Роскошная рюша на попке, придаст любой фигуре аппетитные формы, а образу игривость. Основной материал - сетка, приоткрывает завесу тайны, сохраняя поле для воображения. Костюм игривой медсестры SM (Premium quality).  Костюм игривой медсестры SM (Premium quality). Модель: lefri-06717smw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">TELLA от LEROINA - это многогранное удовольствия для двоих! Эти игрушки работают как в паре, так и по отдельности. Щеточка - это одновременно стимулятор эрогенных зон и пульт дистанционного управления вибро-шариками. Вибрацию игрушек можно синхронизировать, а можно наслаждаться разными режимами. Это сделает прелюдию дико возбуждающей: проведи мягкими силиконовыми ворсинками по клитору, соскам или мошонке. Пульт работает на расстоянии до 8-и метров. Это позволяет вам играть друг с другом на расстоянии. Игрушки изготовлена из бархатистого силикона. Не требует батареек и заряжается с помощью USB-провода (в комплекте). Набор для внутренней и внешней стимуляции L'EROINA by TOYFA Tella (10 режимов).  Набор для внутренней и внешней стимуляции L'EROINA by TOYFA Tella (10 режимов). Модель: leroina-564001. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -12439,7 +12423,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -12454,17 +12438,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
+      <c r="W92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>10.2</v>
+      </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="inlineStr"/>
-      <c r="AG92" t="inlineStr"/>
+      <c r="AF92" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>3.3</v>
+      </c>
       <c r="AH92" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12477,7 +12475,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>лиф, трусики с рюшами</t>
+          <t>вибро-шарики, клиторальный стимулятор, зарядное USB-устройство, инструкция</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -12497,28 +12495,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Перезаряжаемый универсальный вибратор</t>
+          <t>Мастурбатор с рельефом внутри Lingam</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-26566-1299</t>
+          <t>id-21186-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -12534,12 +12532,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26566/26566_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_5_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибростимулятор сделает вашу сексуальную жизнь ярче и интереснее. Благодаря 7 режимам вибрации вы легко найдете подходящий именно вам и получите незабываемое удовольствие. Удобное управление одной кнопкой позволяет полностью погрузиться в игру. Головка игрушки комбинирована с качественным ABS пластиком, что позволяет лучше передавать вибрацию, а узкий силиконовый конец девайса гарантирует приятные тактильные ощущения. Перезаряжаемая технология при помощи USB (в комплекте) избавит вас от постоянной покупки батареек. Безусловно, вибратор Cosmy может удовлетворить запросы даже самых искушенных любителей секс-игрушек!.Перезаряжаемый универсальный вибратор L'EROINA Cosmy (7 режимов).  Перезаряжаемый универсальный вибратор L'EROINA Cosmy (7 режимов). Модель: leroina-561019. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: фиолетовый, черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Большинство мужчин обожает, когда партнёрша стимулирует член руками, однако признаются, что трудно найти девушку, которая владела бы мануальными техниками для мужчин в совершенстве.Массажер LINGAM Indira поможет стать одной на миллион!Этот массажер подойдет для любителей классики, так как его внутренний рельеф повторяет женскую анатомию. Преимущество Лингам-массажа в том, что вы рукой можете контролировать силу сжатия.Indira - это односторонний массажер. Материал абсолютно прозрачный и мужчина может наблюдать за процессом. А они это так любят!На основании массажера два кольца, в которые вы можете вставить вибропули (не в комплекте) и доставить ему ещё больше удовольствия.Лингам-техника, которую вы можете выполнять с массажером Indira:1. Для лучшего скольжения используйте лубрикант на водной основе.2. Медленно вкручивающими движениями вводите член внутрь массажера и выводите из него. Ваш партнер сможет насладиться каждым изгибом рельефа. Мастурбатор с рельефом внутри Lingam Indira.  Мастурбатор с рельефом внутри Lingam Indira. Модель: lingam-880101. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. Материал: нежный TPE. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -12549,17 +12547,17 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>нежный TPE</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -12574,26 +12572,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
+      <c r="W93" t="n">
+        <v>5</v>
+      </c>
+      <c r="X93" t="n">
+        <v>5.5</v>
+      </c>
       <c r="Y93" t="n">
-        <v>20.35</v>
+        <v>13.97</v>
       </c>
       <c r="Z93" t="n">
-        <v>18.5</v>
+        <v>12.7</v>
       </c>
       <c r="AA93" t="n">
-        <v>18.5</v>
+        <v>12.7</v>
       </c>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="n">
-        <v>3.74</v>
+        <v>2.2</v>
       </c>
       <c r="AG93" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="AH93" t="inlineStr">
         <is>
@@ -12607,7 +12609,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -12627,28 +12629,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор с клиторальным</t>
+          <t>Мастурбатор с рельефом внутри Lingam</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-26271-1299</t>
+          <t>id-21203-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -12664,32 +12666,32 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26271/26271_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_4_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор SANGRA создан для того чтобы удовлетворить все ваши желания и воплотить в жизнь самые смелые фантазии. Мягкая середина девайса позволяет ему слегка гнутся, так что вы без труда найдете идеальный угол для стимуляции, а нежные ворсинки на клиторальном отростке удвоят удовольствие. Для удобства использования кнопки устройства подсвечиваются во время включения и в процессе работы. К вашим услугам десять режимов вибрации и два мощных мотора. Изготовлен из легкого в эксплуатации, нетоксичного, гипоаллергенного силикона. Вибратор SANGRA от LEROINA идеально подходит для начинающих и опытных пользователей!.Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Sangra (10 режимов).  Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Sangra (10 режимов). Модель: leroina-561025. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: винный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Большинство мужчин обожает, когда партнёрша стимулирует член руками, однако признаются, что трудно найти девушку, которая владела бы мануальными техниками для мужчин в совершенстве.Массажер LINGAM Rashmi поможет стать одной на миллион!Массажер Rashmi имеет 3 различных внутренних рельефа. Используйте эту технику, и вы подарите три разных оттенка наслаждения вашему мужчине.Rashmi - это односторонний массажер. Материал абсолютно прозрачный и мужчина может наблюдать за процессом. А они это так любят!Лингам-техника, которую вы можете выполнять с массажером Rashmi:1. Для лучшего скольжения используйте лубрикант на водной основе.2. Постепенно вводите головку в первый шар массажера, затем во второй, третий и обратно.3. Задержитесь в каждом из шаров и вращающими движениями массируйте головку сначала по часовой стрелке, затем против часовой стрелки.Внутри вы найдете подробную инструкцию по техникам Лингам-массажа. Мастурбатор с рельефом внутри Lingam Rashmi.  Мастурбатор с рельефом внутри Lingam Rashmi. Модель: lingam-880102. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. Материал: нежный TPE. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>нежный TPE</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -12704,30 +12706,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+      <c r="W94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X94" t="n">
+        <v>4.125</v>
+      </c>
       <c r="Y94" t="n">
-        <v>22.33</v>
+        <v>15.4</v>
       </c>
       <c r="Z94" t="n">
-        <v>20.3</v>
+        <v>14</v>
       </c>
       <c r="AA94" t="n">
-        <v>20.3</v>
+        <v>14</v>
       </c>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
-      <c r="AD94" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>13.53</v>
-      </c>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="n">
-        <v>3.74</v>
+        <v>2.2</v>
       </c>
       <c r="AG94" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="AH94" t="inlineStr">
         <is>
@@ -12741,7 +12743,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12761,28 +12763,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор с клиторальным</t>
+          <t>Рельефный мастурбатор открытого типа</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-26282-1299</t>
+          <t>id-27202-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -12798,12 +12800,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26282/26282_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_7_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор MION создан для того чтобы удовлетворить все ваши желания и воплотить в жизнь самые смелые фантазии. Мягкая середина девайса позволяет ему слегка гнуться, так что вы без труда найдете идеальный угол для стимуляции, а нежные лепестки на клиторальном отростке удвоят удовольствие. Для удобства использования кнопки устройства подсвечиваются во время включения и в процессе работы. К вашим услугам десять режимов вибрации и два мощных мотора. Изготовлен из легкого в эксплуатации, нетоксичного, гипоаллергенного силикона. Вибратор MION от LEROINA идеально подходит для начинающих и опытных пользователей!.Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Mion (10 режимов).  Перезаряжаемый вибратор с клиторальным стимулятором L'EROINA Mion (10 режимов). Модель: leroina-561026. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: винный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Большинство мужчин обожает, когда партнёрша стимулирует член руками, однако признаются, что трудно найти девушку, которая владела бы мануальными техниками для мужчин в совершенстве. Массажер LINGAM Savitri поможет стать одной на миллион!Массажер Savitri имеет 2 входа с разными диаметрами. Один из них с дразнящими ресничками. Материал абсолютно прозрачный и мужчина может наблюдать за процессом. А они это так любят!Лингам-техника, которую вы можете выполнять с массажером Savitri:Для лучшего скольжения используйте лубрикант на водной основе.Сначала введите головку члена в отделение массажара с ресничками. Легкими вращающими движениями помассируйте только головку.Затем резко введите член полностью в массажер. Сделайте несколько интенсивных движений вверх-вниз.Чередуйте дразнящие ласки головки с интенсивной стимуляцией всего члена.Внутри вы найдете подробную инструкцию по техникам Лингам-массажа. Рельефный мастурбатор открытого типа Lingam SAVITRI.  Рельефный мастурбатор открытого типа Lingam SAVITRI. Модель: lingam-880104. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. Материал: эластичный TPE . Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12813,17 +12815,17 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t xml:space="preserve">эластичный TPE </t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -12838,30 +12840,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
+      <c r="W95" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="X95" t="n">
+        <v>6.325</v>
+      </c>
       <c r="Y95" t="n">
-        <v>24.53</v>
+        <v>15.95</v>
       </c>
       <c r="Z95" t="n">
-        <v>22.3</v>
+        <v>14.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>22.3</v>
+        <v>14.5</v>
       </c>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="n">
-        <v>3.74</v>
+        <v>2.2</v>
       </c>
       <c r="AG95" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="AH95" t="inlineStr">
         <is>
@@ -12875,7 +12877,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12901,7 +12903,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>LOVETOYS INDUSTRIAL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -12911,12 +12913,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Набор для внутренней и внешней</t>
+          <t>Реалистичный вибратор Real Softee 7''</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-23115-1299</t>
+          <t>id-28339-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12932,17 +12934,17 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23115/23115_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28339/28339_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28339/28339_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28339/28339_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28339/28339_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28339/28339_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28339/28339_6_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">TELLA от LEROINA - это многогранное удовольствия для двоих! Эти игрушки работают как в паре, так и по отдельности. Щеточка - это одновременно стимулятор эрогенных зон и пульт дистанционного управления вибро-шариками. Вибрацию игрушек можно синхронизировать, а можно наслаждаться разными режимами. Это сделает прелюдию дико возбуждающей: проведи мягкими силиконовыми ворсинками по клитору, соскам или мошонке. Пульт работает на расстоянии до 8-и метров. Это позволяет вам играть друг с другом на расстоянии. Игрушки изготовлена из бархатистого силикона. Не требует батареек и заряжается с помощью USB-провода (в комплекте). Набор для внутренней и внешней стимуляции L'EROINA by TOYFA Tella (10 режимов).  Набор для внутренней и внешней стимуляции L'EROINA by TOYFA Tella (10 режимов). Модель: leroina-564001. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Удовлетворите себя каждой жилкой, изгибом и выпуклостью этой точной копии возбужденного полового члена, которая выглядит и ощущается так, как ваши ожившие фантазии.Этот фаллоимитатор максимально близко передает весь чувственный опыт близости с партнером, особенно если перед использованием его чуть нагреть под горячей проточной водой. Материал максимально схож с человеческой кожей.Для обострения ощущений предусмотрена вибрация, которая представлена в 10 различных режимах. Переключаются они при помощи всего одной кнопки, что очень удобно, которая расположена в основании игрушки. Эта же кнопка включает и выключает вибратор. Длительное удержание (в течение 3 сек) включает.вsключает стимулятор, а кратковременное нажатие переключает режимы между собой.Рекомендуем использовать смазки на водной основе. Реалистичный вибратор Real Softee 7'' (10 режимов).  Реалистичный вибратор Real Softee 7'' (10 режимов). Модель: lti-0911. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: телесный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: LOVETOYS INDUSTRIAL. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -12957,7 +12959,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>нежный TPE (вторая кожа)</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
@@ -12972,30 +12974,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W96" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X96" t="n">
-        <v>3.96</v>
-      </c>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
       <c r="Y96" t="n">
-        <v>11.22</v>
+        <v>19.25</v>
       </c>
       <c r="Z96" t="n">
-        <v>10.2</v>
+        <v>17.5</v>
       </c>
       <c r="AA96" t="n">
-        <v>10.2</v>
+        <v>17.5</v>
       </c>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
+      <c r="AD96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>16.5</v>
+      </c>
       <c r="AF96" t="n">
-        <v>3.63</v>
+        <v>4.785</v>
       </c>
       <c r="AG96" t="n">
-        <v>3.3</v>
+        <v>4.35</v>
       </c>
       <c r="AH96" t="inlineStr">
         <is>
@@ -13009,7 +13011,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>вибро-шарики, клиторальный стимулятор, зарядное USB-устройство, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -13029,28 +13031,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>LOVETOYS INDUSTRIAL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Мастурбатор с рельефом внутри Lingam</t>
+          <t>Реалистичный вибратор Real Softee 9''</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-21186-1299</t>
+          <t>id-28338-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -13066,12 +13068,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21186/21186_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28338/28338_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28338/28338_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28338/28338_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28338/28338_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28338/28338_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28338/28338_7_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Большинство мужчин обожает, когда партнёрша стимулирует член руками, однако признаются, что трудно найти девушку, которая владела бы мануальными техниками для мужчин в совершенстве.Массажер LINGAM Indira поможет стать одной на миллион!Этот массажер подойдет для любителей классики, так как его внутренний рельеф повторяет женскую анатомию. Преимущество Лингам-массажа в том, что вы рукой можете контролировать силу сжатия.Indira - это односторонний массажер. Материал абсолютно прозрачный и мужчина может наблюдать за процессом. А они это так любят!На основании массажера два кольца, в которые вы можете вставить вибропули (не в комплекте) и доставить ему ещё больше удовольствия.Лингам-техника, которую вы можете выполнять с массажером Indira:1. Для лучшего скольжения используйте лубрикант на водной основе.2. Медленно вкручивающими движениями вводите член внутрь массажера и выводите из него. Ваш партнер сможет насладиться каждым изгибом рельефа. Мастурбатор с рельефом внутри Lingam Indira.  Мастурбатор с рельефом внутри Lingam Indira. Модель: lingam-880101. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. Материал: нежный TPE. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Этот фаллоимитатор максимально близко передает весь чувственный опыт близости с партнером, особенно если перед использованием его чуть нагреть под горячей проточной водой. Материал максимально схож с человеческой кожей.Для обострения ощущений предусмотрена вибрация, которая представлена в 10 различных режимах. Переключаются они при помощи всего одной кнопки, что очень удобно, которая расположена в основании игрушки. Эта же кнопка включает и выключает вибратор. Длительное удержание (в течение 3 сек) включает.вsключает стимулятор, а кратковременное нажатие переключает режимы между собой.Рекомендуем использовать смазки на водной основе. Реалистичный вибратор Real Softee 9'' (10 режимов).  Реалистичный вибратор Real Softee 9'' (10 режимов). Модель: lti-0915. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: телесный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: LOVETOYS INDUSTRIAL. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -13081,17 +13083,17 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>нежный TPE</t>
+          <t>нежный TPE (вторая кожа)</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
@@ -13106,30 +13108,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W97" t="n">
-        <v>5</v>
-      </c>
-      <c r="X97" t="n">
-        <v>5.5</v>
-      </c>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
       <c r="Y97" t="n">
-        <v>13.97</v>
+        <v>25.3</v>
       </c>
       <c r="Z97" t="n">
-        <v>12.7</v>
+        <v>23</v>
       </c>
       <c r="AA97" t="n">
-        <v>12.7</v>
+        <v>23</v>
       </c>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
+      <c r="AD97" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>22.55</v>
+      </c>
       <c r="AF97" t="n">
-        <v>2.2</v>
+        <v>4.51</v>
       </c>
       <c r="AG97" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="AH97" t="inlineStr">
         <is>
@@ -13163,13 +13165,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вагинальные тренажеры</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>LOVETOYS INDUSTRIAL</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -13179,12 +13181,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Мастурбатор с рельефом внутри Lingam</t>
+          <t>Удлиняющая насадка на пенис Pleasure X</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-21203-1299</t>
+          <t>id-28341-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -13200,12 +13202,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21203/21203_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28341/28341_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28341/28341_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28341/28341_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28341/28341_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28341/28341_4_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Большинство мужчин обожает, когда партнёрша стимулирует член руками, однако признаются, что трудно найти девушку, которая владела бы мануальными техниками для мужчин в совершенстве.Массажер LINGAM Rashmi поможет стать одной на миллион!Массажер Rashmi имеет 3 различных внутренних рельефа. Используйте эту технику, и вы подарите три разных оттенка наслаждения вашему мужчине.Rashmi - это односторонний массажер. Материал абсолютно прозрачный и мужчина может наблюдать за процессом. А они это так любят!Лингам-техника, которую вы можете выполнять с массажером Rashmi:1. Для лучшего скольжения используйте лубрикант на водной основе.2. Постепенно вводите головку в первый шар массажера, затем во второй, третий и обратно.3. Задержитесь в каждом из шаров и вращающими движениями массируйте головку сначала по часовой стрелке, затем против часовой стрелки.Внутри вы найдете подробную инструкцию по техникам Лингам-массажа. Мастурбатор с рельефом внутри Lingam Rashmi.  Мастурбатор с рельефом внутри Lingam Rashmi. Модель: lingam-880102. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. Материал: нежный TPE. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Love Toy Pleasure X-tender - невероятно реалистичная текстурированная насадка для полового члена, выполненная из мягкого материала телесного цвета.Применение насадки добавляет 4 см в длину и 30% увеличение в обхвате.Вы можете поэкспериментировать предварительно нагрев насадку под горячей водой.Обильно нанесите смазку на водной основе на внешнюю и внутреннюю поверхности насадки для максимального комфорта и удовольствия.Ключевые особенности:Реалистичный удлинитель полового члена для увеличения длины и обхвата на 30%.Выпуклая головка и жилистый ствол усиливают ощущения во время использования. Удлиняющая насадка на пенис Pleasure X Tender +1.  Удлиняющая насадка на пенис Pleasure X Tender +1. Модель: lti-1051. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: телесный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: LOVETOYS INDUSTRIAL. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -13215,17 +13217,17 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>нежный TPE</t>
+          <t>нежный TPE (вторая кожа)</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -13240,31 +13242,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W98" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X98" t="n">
-        <v>4.125</v>
-      </c>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
       <c r="Y98" t="n">
-        <v>15.4</v>
+        <v>19.25</v>
       </c>
       <c r="Z98" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AA98" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>2</v>
-      </c>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13297,13 +13291,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вагинальные тренажеры</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>LOVETOYS INDUSTRIAL</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -13313,12 +13307,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Рельефный мастурбатор открытого типа</t>
+          <t>Удлиняющая насадка на пенис Pleasure X</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-27202-1299</t>
+          <t>id-28343-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -13334,32 +13328,32 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27202/27202_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28343/28343_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28343/28343_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28343/28343_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28343/28343_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28343/28343_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28343/28343_1_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Большинство мужчин обожает, когда партнёрша стимулирует член руками, однако признаются, что трудно найти девушку, которая владела бы мануальными техниками для мужчин в совершенстве. Массажер LINGAM Savitri поможет стать одной на миллион!Массажер Savitri имеет 2 входа с разными диаметрами. Один из них с дразнящими ресничками. Материал абсолютно прозрачный и мужчина может наблюдать за процессом. А они это так любят!Лингам-техника, которую вы можете выполнять с массажером Savitri:Для лучшего скольжения используйте лубрикант на водной основе.Сначала введите головку члена в отделение массажара с ресничками. Легкими вращающими движениями помассируйте только головку.Затем резко введите член полностью в массажер. Сделайте несколько интенсивных движений вверх-вниз.Чередуйте дразнящие ласки головки с интенсивной стимуляцией всего члена.Внутри вы найдете подробную инструкцию по техникам Лингам-массажа. Рельефный мастурбатор открытого типа Lingam SAVITRI.  Рельефный мастурбатор открытого типа Lingam SAVITRI. Модель: lingam-880104. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. Материал: эластичный TPE . Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Love Toy Pleasure X-tender - невероятно реалистичная текстурированная насадка для полового члена, выполненная из мягкого материала телесного цвета.Применение насадки добавляет 5 см в длину и 30% увеличение в обхвате.Вы можете поэкспериментировать предварительно нагрев насадку под горячей водой.Обильно нанесите смазку на водной основе на внешнюю и внутреннюю поверхности насадки для максимального комфорта и удовольствия.Ключевые особенности:Реалистичный удлинитель полового члена для увеличения длины и обхвата на 30%.Выпуклая головка и жилистый ствол усиливают ощущения во время испо.Удлиняющая насадка на пенис Pleasure X Tender +2.  Удлиняющая насадка на пенис Pleasure X Tender +2. Модель: lti-1053. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: телесный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: LOVETOYS INDUSTRIAL. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t xml:space="preserve">эластичный TPE </t>
+          <t>нежный TPE (вторая кожа)</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -13374,31 +13368,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W99" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="X99" t="n">
-        <v>6.325</v>
-      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
       <c r="Y99" t="n">
-        <v>15.95</v>
+        <v>19.8</v>
       </c>
       <c r="Z99" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AA99" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>2</v>
-      </c>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13431,28 +13417,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LOVETOYS INDUSTRIAL</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Презервативы увеличенного размера</t>
+          <t>Реалистичный фалоимитатор The Ultra</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-25724-1299</t>
+          <t>id-28336-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -13468,12 +13454,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25724/25724_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28336/28336_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28336/28336_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28336/28336_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28336/28336_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28336/28336_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28336/28336_6_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гладкие презервативы из высококачественного латекса, для тех кому нужен размер больше среднего! В каждой фирменной упаковке содержится 6 увеличенных по длине презервативов в смазке. Презервативы увеличенного размера Domino Classic King Size (6 шт).  Презервативы увеличенного размера Domino Classic King Size (6 шт). Модель: luxe-08687. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">THE ULTRA SOFT DUDE - это коллекция роскошных фаллоимитаторов, разработанная Love Toy .Изучите каждый сантиметр фаллоимитатора Ultra Soft Dude. Удовлетворите себя каждой жилкой, изгибом и выпуклостью этой точной копии возбужденного полового члена, которая выглядит и ощущается так, как ваши ожившие фантазии.Этот фаллоимитатор максимально близко передает весь чувственный опыт близости с партнером, особенно если перед использованием его чуть нагреть под горячей проточной водой.Кроме прочего у этого фаллоимитатора есть мощная присоска, которую можно разместить на любой гладкой поверхности или использовать как насадку для страпона.Ключевые особенности:100% мягкая кибер-кожареалистичный фаллоимитатор на присоске.Реалистичный фалоимитатор The Ultra Soft Dude 7,5.  Реалистичный фалоимитатор The Ultra Soft Dude 7,5. Модель: lti-1083. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Цвет: телесный. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: LOVETOYS INDUSTRIAL. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -13483,17 +13469,17 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>нежный TPE (вторая кожа)</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -13508,27 +13494,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W100" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X100" t="n">
-        <v>0.396</v>
-      </c>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
       <c r="Y100" t="n">
-        <v>1.32</v>
+        <v>18.15</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.2</v>
+        <v>16.5</v>
       </c>
       <c r="AA100" t="n">
-        <v>1.2</v>
+        <v>16.5</v>
       </c>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
+      <c r="AF100" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>3.8</v>
+      </c>
       <c r="AH100" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13541,7 +13527,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>6 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -13561,28 +13547,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LUXE</t>
+          <t>LOVETOYS INDUSTRIAL</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Продлевающие презервативы Domino</t>
+          <t>Гигантский двойной фаллос на присоске</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-25723-1299</t>
+          <t>id-28328-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -13598,12 +13584,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25723/25723_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28328/28328_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28328/28328_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28328/28328_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28328/28328_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28328/28328_2_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гладкие презервативы из высококачественного латекса для тех, кому нужен пролонгирующий эффект! В каждой фирменной упаковке содержится 6 пролонгирующих презервативов (с добавлением анестетика) в смазке. Продлевающие презервативы Domino Classic Long Action с анестетиком (6 шт).  Продлевающие презервативы Domino Classic Long Action с анестетиком (6 шт). Модель: luxe-08688. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: LUXE. </t>
+          <t xml:space="preserve">Гигантский двойной фаллоимитатор способный поразить даже самых искушенных ценителей чувственной стимуляции и фистинга.Его невероятные размеры и двойная стимуляция по-настоящему впечатляют, а мощное основание на присоске позволяет закрепить его на любой плоской гладкой поверхности для удобного использования без рук.Рекомендуем использовать со смазкой на водной основе. Гигантский двойной фаллос на присоске Mega Double Dildo 12''.  Гигантский двойной фаллос на присоске Mega Double Dildo 12''. Модель: lti-111013. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. Бренд: LOVETOYS INDUSTRIAL. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -13613,17 +13599,17 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>ПВХ</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
@@ -13638,27 +13624,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W101" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X101" t="n">
-        <v>0.396</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
       <c r="Y101" t="n">
-        <v>1.265</v>
+        <v>26.4</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.15</v>
+        <v>24</v>
       </c>
       <c r="AA101" t="n">
-        <v>1.15</v>
+        <v>24</v>
       </c>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
+      <c r="AF101" t="n">
+        <v>6.765</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>6.15</v>
+      </c>
       <c r="AH101" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13671,7 +13657,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>6 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
